--- a/RA/Esterni/Piano di Progetto/Ripartizione ruoli e ore2.xlsx
+++ b/RA/Esterni/Piano di Progetto/Ripartizione ruoli e ore2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="9645" windowHeight="4680" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="9645" windowHeight="4680" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Prospetto orario (CON AN)" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="156">
   <si>
     <t>Membro</t>
   </si>
@@ -1313,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1645,10 +1645,45 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1663,55 +1698,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1732,7 +1735,83 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2139,12 +2218,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="96412032"/>
-        <c:axId val="96413568"/>
+        <c:axId val="92598656"/>
+        <c:axId val="92600192"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="96412032"/>
+        <c:axId val="92598656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,7 +2232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96413568"/>
+        <c:crossAx val="92600192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2161,7 +2240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96413568"/>
+        <c:axId val="92600192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,7 +2251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96412032"/>
+        <c:crossAx val="92598656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2362,12 +2441,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="96447872"/>
-        <c:axId val="96457856"/>
+        <c:axId val="55483776"/>
+        <c:axId val="55501952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="96447872"/>
+        <c:axId val="55483776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96457856"/>
+        <c:crossAx val="55501952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2384,7 +2463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96457856"/>
+        <c:axId val="55501952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2396,7 +2475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96447872"/>
+        <c:crossAx val="55483776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2597,12 +2676,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="100936704"/>
-        <c:axId val="100954880"/>
+        <c:axId val="85863424"/>
+        <c:axId val="85877504"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100936704"/>
+        <c:axId val="85863424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,7 +2690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100954880"/>
+        <c:crossAx val="85877504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2619,7 +2698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100954880"/>
+        <c:axId val="85877504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2631,14 +2710,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100936704"/>
+        <c:crossAx val="85863424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2858,12 +2936,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="100968704"/>
-        <c:axId val="100974592"/>
+        <c:axId val="85891328"/>
+        <c:axId val="85897216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100968704"/>
+        <c:axId val="85891328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2872,7 +2950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100974592"/>
+        <c:crossAx val="85897216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2880,7 +2958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100974592"/>
+        <c:axId val="85897216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +2969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100968704"/>
+        <c:crossAx val="85891328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3416,11 +3494,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="101483264"/>
-        <c:axId val="101484800"/>
+        <c:axId val="40720256"/>
+        <c:axId val="40721792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101483264"/>
+        <c:axId val="40720256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,7 +3507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101484800"/>
+        <c:crossAx val="40721792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3437,7 +3515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101484800"/>
+        <c:axId val="40721792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3448,13 +3526,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101483264"/>
+        <c:crossAx val="40720256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4335,19 +4414,19 @@
         <f>'1_AN'!O2</f>
         <v>Membro</v>
       </c>
-      <c r="AC2" s="205" t="str">
+      <c r="AC2" s="201" t="str">
         <f>'1_AN'!P2</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD2" s="206"/>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="205" t="str">
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="201" t="str">
         <f>'1_AN'!S2</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="199" t="str">
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="202"/>
+      <c r="AI2" s="204" t="str">
         <f>'1_AN'!V2</f>
         <v>Totale</v>
       </c>
@@ -4481,7 +4560,7 @@
         <f>'1_AN'!U3</f>
         <v>Fase</v>
       </c>
-      <c r="AI3" s="200"/>
+      <c r="AI3" s="205"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="139" t="s">
@@ -5364,25 +5443,25 @@
       <c r="AB12" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="205" t="str">
+      <c r="AC12" s="201" t="str">
         <f>Consuntivo_2_PA!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="208"/>
-      <c r="AE12" s="209"/>
-      <c r="AF12" s="195" t="str">
+      <c r="AD12" s="206"/>
+      <c r="AE12" s="207"/>
+      <c r="AF12" s="208" t="str">
         <f>Consuntivo_2_PA!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="196"/>
-      <c r="AH12" s="197"/>
-      <c r="AI12" s="195" t="str">
+      <c r="AG12" s="209"/>
+      <c r="AH12" s="210"/>
+      <c r="AI12" s="208" t="str">
         <f>Consuntivo_2_PA!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="196"/>
-      <c r="AK12" s="198"/>
-      <c r="AL12" s="199" t="str">
+      <c r="AJ12" s="209"/>
+      <c r="AK12" s="211"/>
+      <c r="AL12" s="204" t="str">
         <f>Consuntivo_2_PA!AE9</f>
         <v>Totale</v>
       </c>
@@ -5433,7 +5512,7 @@
         <f>Consuntivo_2_PA!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="200"/>
+      <c r="AL13" s="205"/>
       <c r="AM13" s="5">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -5488,7 +5567,7 @@
         <f>Consuntivo_2_PA!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="201">
+      <c r="AL14" s="212">
         <f>Consuntivo_2_PA!AE11</f>
         <v>26</v>
       </c>
@@ -5618,7 +5697,7 @@
         <f>Consuntivo_2_PA!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="193"/>
+      <c r="AL15" s="200"/>
       <c r="AO15" s="5">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -5737,7 +5816,7 @@
         <f>Consuntivo_2_PA!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="193">
+      <c r="AL16" s="200">
         <f>Consuntivo_2_PA!AE13</f>
         <v>27</v>
       </c>
@@ -5859,7 +5938,7 @@
         <f>Consuntivo_2_PA!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="193"/>
+      <c r="AL17" s="200"/>
       <c r="AO17" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5978,7 +6057,7 @@
         <f>Consuntivo_2_PA!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="193">
+      <c r="AL18" s="200">
         <f>Consuntivo_2_PA!AE15</f>
         <v>26</v>
       </c>
@@ -6100,7 +6179,7 @@
         <f>Consuntivo_2_PA!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="193"/>
+      <c r="AL19" s="200"/>
       <c r="AO19" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6219,7 +6298,7 @@
         <f>Consuntivo_2_PA!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="193">
+      <c r="AL20" s="200">
         <f>Consuntivo_2_PA!AE17</f>
         <v>28</v>
       </c>
@@ -6341,7 +6420,7 @@
         <f>Consuntivo_2_PA!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="193"/>
+      <c r="AL21" s="200"/>
       <c r="AO21" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6460,7 +6539,7 @@
         <f>Consuntivo_2_PA!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="193">
+      <c r="AL22" s="200">
         <f>Consuntivo_2_PA!AE19</f>
         <v>30</v>
       </c>
@@ -6545,36 +6624,36 @@
       <c r="A23" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="210" t="s">
+      <c r="B23" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="210" t="s">
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210" t="s">
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="210"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="210" t="s">
+      <c r="I23" s="213"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="210"/>
-      <c r="M23" s="210"/>
-      <c r="N23" s="210" t="s">
+      <c r="L23" s="213"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="210"/>
-      <c r="P23" s="210"/>
-      <c r="Q23" s="210" t="s">
+      <c r="O23" s="213"/>
+      <c r="P23" s="213"/>
+      <c r="Q23" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="210"/>
-      <c r="S23" s="210"/>
+      <c r="R23" s="213"/>
+      <c r="S23" s="213"/>
       <c r="T23" s="150" t="s">
         <v>14</v>
       </c>
@@ -6619,7 +6698,7 @@
         <f>Consuntivo_2_PA!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="193"/>
+      <c r="AL23" s="200"/>
       <c r="AO23" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6698,50 +6777,50 @@
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A24" s="202" t="s">
+      <c r="A24" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="204">
+      <c r="B24" s="197">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="204"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="204">
+      <c r="C24" s="197"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
-      <c r="H24" s="203">
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="198">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>15</v>
       </c>
-      <c r="I24" s="203"/>
-      <c r="J24" s="203"/>
-      <c r="K24" s="204">
+      <c r="I24" s="198"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="197">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="204"/>
-      <c r="M24" s="204"/>
-      <c r="N24" s="203">
+      <c r="L24" s="197"/>
+      <c r="M24" s="197"/>
+      <c r="N24" s="198">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="203"/>
-      <c r="P24" s="203"/>
-      <c r="Q24" s="204">
+      <c r="O24" s="198"/>
+      <c r="P24" s="198"/>
+      <c r="Q24" s="197">
         <f t="shared" ref="Q24" si="38">SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="204"/>
-      <c r="S24" s="204"/>
-      <c r="T24" s="213">
+      <c r="R24" s="197"/>
+      <c r="S24" s="197"/>
+      <c r="T24" s="195">
         <f t="shared" ref="T24" si="39">SUM(B24:S25)</f>
         <v>115</v>
       </c>
-      <c r="U24" s="212"/>
+      <c r="U24" s="194"/>
       <c r="AB24" s="44" t="str">
         <f>Consuntivo_2_PA!U21</f>
         <v>Quadrio Giacomo</v>
@@ -6782,7 +6861,7 @@
         <f>Consuntivo_2_PA!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="193">
+      <c r="AL24" s="200">
         <f>Consuntivo_2_PA!AE21</f>
         <v>28</v>
       </c>
@@ -6864,27 +6943,27 @@
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A25" s="202"/>
-      <c r="B25" s="204"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="203"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="204"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="203"/>
-      <c r="O25" s="203"/>
-      <c r="P25" s="203"/>
-      <c r="Q25" s="204"/>
-      <c r="R25" s="204"/>
-      <c r="S25" s="204"/>
-      <c r="T25" s="213"/>
-      <c r="U25" s="212"/>
+      <c r="A25" s="199"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="197"/>
+      <c r="L25" s="197"/>
+      <c r="M25" s="197"/>
+      <c r="N25" s="198"/>
+      <c r="O25" s="198"/>
+      <c r="P25" s="198"/>
+      <c r="Q25" s="197"/>
+      <c r="R25" s="197"/>
+      <c r="S25" s="197"/>
+      <c r="T25" s="195"/>
+      <c r="U25" s="194"/>
       <c r="AB25" s="44">
         <f>Consuntivo_2_PA!U22</f>
         <v>0</v>
@@ -6925,7 +7004,7 @@
         <f>Consuntivo_2_PA!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="193"/>
+      <c r="AL25" s="200"/>
       <c r="AO25" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -7004,50 +7083,50 @@
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A26" s="202" t="s">
+      <c r="A26" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="204">
+      <c r="B26" s="197">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204">
+      <c r="C26" s="197"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="204">
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>11</v>
       </c>
-      <c r="I26" s="204"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="203">
+      <c r="I26" s="197"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="198">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>41</v>
       </c>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="204">
+      <c r="L26" s="198"/>
+      <c r="M26" s="198"/>
+      <c r="N26" s="197">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="204"/>
-      <c r="P26" s="204"/>
-      <c r="Q26" s="204">
+      <c r="O26" s="197"/>
+      <c r="P26" s="197"/>
+      <c r="Q26" s="197">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="204"/>
-      <c r="S26" s="204"/>
-      <c r="T26" s="213">
+      <c r="R26" s="197"/>
+      <c r="S26" s="197"/>
+      <c r="T26" s="195">
         <f t="shared" ref="T26" si="40">SUM(B26:S27)</f>
         <v>116</v>
       </c>
-      <c r="U26" s="212"/>
+      <c r="U26" s="194"/>
       <c r="AB26" s="53" t="str">
         <f>Consuntivo_2_PA!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -7088,7 +7167,7 @@
         <f>Consuntivo_2_PA!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="193">
+      <c r="AL26" s="200">
         <f>Consuntivo_2_PA!AE23</f>
         <v>28</v>
       </c>
@@ -7170,27 +7249,27 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="202"/>
-      <c r="B27" s="204"/>
-      <c r="C27" s="204"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="204"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="204"/>
-      <c r="K27" s="203"/>
-      <c r="L27" s="203"/>
-      <c r="M27" s="203"/>
-      <c r="N27" s="204"/>
-      <c r="O27" s="204"/>
-      <c r="P27" s="204"/>
-      <c r="Q27" s="204"/>
-      <c r="R27" s="204"/>
-      <c r="S27" s="204"/>
-      <c r="T27" s="213"/>
-      <c r="U27" s="212"/>
+      <c r="A27" s="199"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="197"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="198"/>
+      <c r="M27" s="198"/>
+      <c r="N27" s="197"/>
+      <c r="O27" s="197"/>
+      <c r="P27" s="197"/>
+      <c r="Q27" s="197"/>
+      <c r="R27" s="197"/>
+      <c r="S27" s="197"/>
+      <c r="T27" s="195"/>
+      <c r="U27" s="194"/>
       <c r="AB27" s="75">
         <f>Consuntivo_2_PA!U24</f>
         <v>0</v>
@@ -7231,7 +7310,7 @@
         <f>Consuntivo_2_PA!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="194"/>
+      <c r="AL27" s="214"/>
       <c r="AO27" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -7310,96 +7389,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="202" t="s">
+      <c r="A28" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="204">
+      <c r="B28" s="197">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="204"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="204">
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>14</v>
       </c>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204">
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>13</v>
       </c>
-      <c r="I28" s="204"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="204">
+      <c r="I28" s="197"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="197">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="204"/>
-      <c r="M28" s="204"/>
-      <c r="N28" s="204">
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+      <c r="N28" s="197">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="204"/>
-      <c r="P28" s="204"/>
-      <c r="Q28" s="203">
+      <c r="O28" s="197"/>
+      <c r="P28" s="197"/>
+      <c r="Q28" s="198">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="203"/>
-      <c r="S28" s="203"/>
-      <c r="T28" s="213">
+      <c r="R28" s="198"/>
+      <c r="S28" s="198"/>
+      <c r="T28" s="195">
         <f t="shared" ref="T28" si="41">SUM(B28:S29)</f>
         <v>117</v>
       </c>
-      <c r="U28" s="212"/>
+      <c r="U28" s="194"/>
       <c r="BG28" s="144">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A29" s="202"/>
-      <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="204"/>
-      <c r="L29" s="204"/>
-      <c r="M29" s="204"/>
-      <c r="N29" s="204"/>
-      <c r="O29" s="204"/>
-      <c r="P29" s="204"/>
-      <c r="Q29" s="203"/>
-      <c r="R29" s="203"/>
-      <c r="S29" s="203"/>
-      <c r="T29" s="213"/>
-      <c r="U29" s="212"/>
+      <c r="A29" s="199"/>
+      <c r="B29" s="197"/>
+      <c r="C29" s="197"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="197"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="197"/>
+      <c r="L29" s="197"/>
+      <c r="M29" s="197"/>
+      <c r="N29" s="197"/>
+      <c r="O29" s="197"/>
+      <c r="P29" s="197"/>
+      <c r="Q29" s="198"/>
+      <c r="R29" s="198"/>
+      <c r="S29" s="198"/>
+      <c r="T29" s="195"/>
+      <c r="U29" s="194"/>
       <c r="AA29" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="195" t="str">
+      <c r="AC29" s="208" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="196"/>
-      <c r="AE29" s="197"/>
-      <c r="AF29" s="195" t="str">
+      <c r="AD29" s="209"/>
+      <c r="AE29" s="210"/>
+      <c r="AF29" s="208" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="196"/>
-      <c r="AH29" s="198"/>
-      <c r="AI29" s="199" t="str">
+      <c r="AG29" s="209"/>
+      <c r="AH29" s="211"/>
+      <c r="AI29" s="204" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -7409,50 +7488,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="202" t="s">
+      <c r="A30" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="204">
+      <c r="B30" s="197">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204">
+      <c r="C30" s="197"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="197">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="204"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="204">
+      <c r="F30" s="197"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="197">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>11</v>
       </c>
-      <c r="I30" s="204"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="203">
+      <c r="I30" s="197"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>39</v>
       </c>
-      <c r="L30" s="203"/>
-      <c r="M30" s="203"/>
-      <c r="N30" s="203">
+      <c r="L30" s="198"/>
+      <c r="M30" s="198"/>
+      <c r="N30" s="198">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="203"/>
-      <c r="P30" s="203"/>
-      <c r="Q30" s="204">
+      <c r="O30" s="198"/>
+      <c r="P30" s="198"/>
+      <c r="Q30" s="197">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="204"/>
-      <c r="S30" s="204"/>
-      <c r="T30" s="213">
+      <c r="R30" s="197"/>
+      <c r="S30" s="197"/>
+      <c r="T30" s="195">
         <f t="shared" ref="T30" si="42">SUM(B30:S31)</f>
         <v>122</v>
       </c>
-      <c r="U30" s="212"/>
+      <c r="U30" s="194"/>
       <c r="AB30" s="141"/>
       <c r="AC30" s="40" t="str">
         <f>'3_PDC'!U7</f>
@@ -7478,7 +7557,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="200"/>
+      <c r="AI30" s="205"/>
       <c r="AK30" s="5">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -7489,27 +7568,27 @@
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A31" s="202"/>
-      <c r="B31" s="204"/>
-      <c r="C31" s="204"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="204"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="203"/>
-      <c r="L31" s="203"/>
-      <c r="M31" s="203"/>
-      <c r="N31" s="203"/>
-      <c r="O31" s="203"/>
-      <c r="P31" s="203"/>
-      <c r="Q31" s="204"/>
-      <c r="R31" s="204"/>
-      <c r="S31" s="204"/>
-      <c r="T31" s="213"/>
-      <c r="U31" s="212"/>
+      <c r="A31" s="199"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="197"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="197"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
+      <c r="M31" s="198"/>
+      <c r="N31" s="198"/>
+      <c r="O31" s="198"/>
+      <c r="P31" s="198"/>
+      <c r="Q31" s="197"/>
+      <c r="R31" s="197"/>
+      <c r="S31" s="197"/>
+      <c r="T31" s="195"/>
+      <c r="U31" s="194"/>
       <c r="AB31" s="44" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -7538,7 +7617,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="201">
+      <c r="AI31" s="212">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -7624,50 +7703,50 @@
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A32" s="202" t="s">
+      <c r="A32" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="204">
+      <c r="B32" s="197">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="204"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="204">
+      <c r="C32" s="197"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="204"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204">
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>12</v>
       </c>
-      <c r="I32" s="204"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="204">
+      <c r="I32" s="197"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="197">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>30</v>
       </c>
-      <c r="L32" s="204"/>
-      <c r="M32" s="204"/>
-      <c r="N32" s="203">
+      <c r="L32" s="197"/>
+      <c r="M32" s="197"/>
+      <c r="N32" s="198">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="203"/>
-      <c r="P32" s="203"/>
-      <c r="Q32" s="204">
+      <c r="O32" s="198"/>
+      <c r="P32" s="198"/>
+      <c r="Q32" s="197">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="204"/>
-      <c r="S32" s="204"/>
-      <c r="T32" s="213">
+      <c r="R32" s="197"/>
+      <c r="S32" s="197"/>
+      <c r="T32" s="195">
         <f t="shared" ref="T32" si="58">SUM(B32:S33)</f>
         <v>122</v>
       </c>
-      <c r="U32" s="212"/>
+      <c r="U32" s="194"/>
       <c r="AB32" s="49">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -7696,7 +7775,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="193"/>
+      <c r="AI32" s="200"/>
       <c r="AO32" s="5">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -7775,27 +7854,27 @@
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A33" s="202"/>
-      <c r="B33" s="204"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="204"/>
-      <c r="M33" s="204"/>
-      <c r="N33" s="203"/>
-      <c r="O33" s="203"/>
-      <c r="P33" s="203"/>
-      <c r="Q33" s="204"/>
-      <c r="R33" s="204"/>
-      <c r="S33" s="204"/>
-      <c r="T33" s="213"/>
-      <c r="U33" s="212"/>
+      <c r="A33" s="199"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="197"/>
+      <c r="N33" s="198"/>
+      <c r="O33" s="198"/>
+      <c r="P33" s="198"/>
+      <c r="Q33" s="197"/>
+      <c r="R33" s="197"/>
+      <c r="S33" s="197"/>
+      <c r="T33" s="195"/>
+      <c r="U33" s="194"/>
       <c r="AB33" s="44" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -7824,7 +7903,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="193">
+      <c r="AI33" s="200">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -7906,50 +7985,50 @@
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A34" s="202" t="s">
+      <c r="A34" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="204">
+      <c r="B34" s="197">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204">
+      <c r="C34" s="197"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="204"/>
-      <c r="G34" s="204"/>
-      <c r="H34" s="204">
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>10</v>
       </c>
-      <c r="I34" s="204"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="203">
+      <c r="I34" s="197"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="198">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>37</v>
       </c>
-      <c r="L34" s="203"/>
-      <c r="M34" s="203"/>
-      <c r="N34" s="203">
+      <c r="L34" s="198"/>
+      <c r="M34" s="198"/>
+      <c r="N34" s="198">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="203"/>
-      <c r="P34" s="203"/>
-      <c r="Q34" s="203">
+      <c r="O34" s="198"/>
+      <c r="P34" s="198"/>
+      <c r="Q34" s="198">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="203"/>
-      <c r="S34" s="203"/>
-      <c r="T34" s="213">
+      <c r="R34" s="198"/>
+      <c r="S34" s="198"/>
+      <c r="T34" s="195">
         <f t="shared" ref="T34" si="62">SUM(B34:S35)</f>
         <v>120</v>
       </c>
-      <c r="U34" s="212"/>
+      <c r="U34" s="194"/>
       <c r="AB34" s="44">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -7978,7 +8057,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="193"/>
+      <c r="AI34" s="200"/>
       <c r="AO34" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8057,27 +8136,27 @@
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A35" s="202"/>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="203"/>
-      <c r="L35" s="203"/>
-      <c r="M35" s="203"/>
-      <c r="N35" s="203"/>
-      <c r="O35" s="203"/>
-      <c r="P35" s="203"/>
-      <c r="Q35" s="203"/>
-      <c r="R35" s="203"/>
-      <c r="S35" s="203"/>
-      <c r="T35" s="213"/>
-      <c r="U35" s="212"/>
+      <c r="A35" s="199"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="197"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="197"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="198"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="198"/>
+      <c r="N35" s="198"/>
+      <c r="O35" s="198"/>
+      <c r="P35" s="198"/>
+      <c r="Q35" s="198"/>
+      <c r="R35" s="198"/>
+      <c r="S35" s="198"/>
+      <c r="T35" s="195"/>
+      <c r="U35" s="194"/>
       <c r="AB35" s="53" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -8106,7 +8185,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="193">
+      <c r="AI35" s="200">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -8188,50 +8267,50 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A36" s="202" t="s">
+      <c r="A36" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="204">
+      <c r="B36" s="197">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>12</v>
       </c>
-      <c r="C36" s="204"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204">
+      <c r="C36" s="197"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204">
+      <c r="F36" s="197"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="197">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="203">
+      <c r="I36" s="197"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="198">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="203"/>
-      <c r="M36" s="203"/>
-      <c r="N36" s="204">
+      <c r="L36" s="198"/>
+      <c r="M36" s="198"/>
+      <c r="N36" s="197">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="204"/>
-      <c r="P36" s="204"/>
-      <c r="Q36" s="204">
+      <c r="O36" s="197"/>
+      <c r="P36" s="197"/>
+      <c r="Q36" s="197">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="204"/>
-      <c r="S36" s="204"/>
-      <c r="T36" s="213">
+      <c r="R36" s="197"/>
+      <c r="S36" s="197"/>
+      <c r="T36" s="195">
         <f t="shared" ref="T36" si="63">SUM(B36:S37)</f>
         <v>116</v>
       </c>
-      <c r="U36" s="212"/>
+      <c r="U36" s="194"/>
       <c r="AB36" s="49">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -8260,7 +8339,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="193"/>
+      <c r="AI36" s="200"/>
       <c r="AO36" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8339,27 +8418,27 @@
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A37" s="202"/>
-      <c r="B37" s="204"/>
-      <c r="C37" s="204"/>
-      <c r="D37" s="204"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
-      <c r="I37" s="204"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="203"/>
-      <c r="L37" s="203"/>
-      <c r="M37" s="203"/>
-      <c r="N37" s="204"/>
-      <c r="O37" s="204"/>
-      <c r="P37" s="204"/>
-      <c r="Q37" s="204"/>
-      <c r="R37" s="204"/>
-      <c r="S37" s="204"/>
-      <c r="T37" s="213"/>
-      <c r="U37" s="212"/>
+      <c r="A37" s="199"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="198"/>
+      <c r="M37" s="198"/>
+      <c r="N37" s="197"/>
+      <c r="O37" s="197"/>
+      <c r="P37" s="197"/>
+      <c r="Q37" s="197"/>
+      <c r="R37" s="197"/>
+      <c r="S37" s="197"/>
+      <c r="T37" s="195"/>
+      <c r="U37" s="194"/>
       <c r="AB37" s="44" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -8388,7 +8467,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="193">
+      <c r="AI37" s="200">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -8470,50 +8549,50 @@
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A38" s="211" t="s">
+      <c r="A38" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="204">
+      <c r="B38" s="197">
         <f>SUM(B24:D37)</f>
         <v>82</v>
       </c>
-      <c r="C38" s="204"/>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204">
+      <c r="C38" s="197"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="197">
         <f t="shared" ref="E38" si="64">SUM(E24:G37)</f>
         <v>69</v>
       </c>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204">
+      <c r="F38" s="197"/>
+      <c r="G38" s="197"/>
+      <c r="H38" s="197">
         <f>SUM(H24:J37)</f>
         <v>79</v>
       </c>
-      <c r="I38" s="204"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="204">
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="197">
         <f t="shared" ref="K38" si="65">SUM(K24:M37)</f>
         <v>235</v>
       </c>
-      <c r="L38" s="204"/>
-      <c r="M38" s="204"/>
-      <c r="N38" s="204">
+      <c r="L38" s="197"/>
+      <c r="M38" s="197"/>
+      <c r="N38" s="197">
         <f t="shared" ref="N38" si="66">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="204"/>
-      <c r="P38" s="204"/>
-      <c r="Q38" s="204">
+      <c r="O38" s="197"/>
+      <c r="P38" s="197"/>
+      <c r="Q38" s="197">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="204"/>
-      <c r="S38" s="204"/>
-      <c r="T38" s="213">
+      <c r="R38" s="197"/>
+      <c r="S38" s="197"/>
+      <c r="T38" s="195">
         <f>SUM(B38:S39)</f>
         <v>828</v>
       </c>
-      <c r="U38" s="212"/>
+      <c r="U38" s="194"/>
       <c r="AB38" s="44">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -8542,7 +8621,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="193"/>
+      <c r="AI38" s="200"/>
       <c r="AO38" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8621,27 +8700,27 @@
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A39" s="211"/>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="204"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204"/>
-      <c r="H39" s="204"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="204"/>
-      <c r="M39" s="204"/>
-      <c r="N39" s="204"/>
-      <c r="O39" s="204"/>
-      <c r="P39" s="204"/>
-      <c r="Q39" s="204"/>
-      <c r="R39" s="204"/>
-      <c r="S39" s="204"/>
-      <c r="T39" s="213"/>
-      <c r="U39" s="212"/>
+      <c r="A39" s="196"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="197"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="197"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="197"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="197"/>
+      <c r="L39" s="197"/>
+      <c r="M39" s="197"/>
+      <c r="N39" s="197"/>
+      <c r="O39" s="197"/>
+      <c r="P39" s="197"/>
+      <c r="Q39" s="197"/>
+      <c r="R39" s="197"/>
+      <c r="S39" s="197"/>
+      <c r="T39" s="195"/>
+      <c r="U39" s="194"/>
       <c r="AB39" s="53" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -8670,7 +8749,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="193">
+      <c r="AI39" s="200">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -8781,7 +8860,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="193"/>
+      <c r="AI40" s="200"/>
       <c r="AO40" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8889,7 +8968,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="193">
+      <c r="AI41" s="200">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -9000,7 +9079,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="193"/>
+      <c r="AI42" s="200"/>
       <c r="AO42" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -9108,7 +9187,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="193">
+      <c r="AI43" s="200">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -9219,7 +9298,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="194"/>
+      <c r="AI44" s="214"/>
       <c r="AO44" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -9312,19 +9391,19 @@
       <c r="AB46" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="195" t="str">
+      <c r="AC46" s="208" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="196"/>
-      <c r="AE46" s="197"/>
-      <c r="AF46" s="195" t="str">
+      <c r="AD46" s="209"/>
+      <c r="AE46" s="210"/>
+      <c r="AF46" s="208" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="196"/>
-      <c r="AH46" s="198"/>
-      <c r="AI46" s="199" t="str">
+      <c r="AG46" s="209"/>
+      <c r="AH46" s="211"/>
+      <c r="AI46" s="204" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -9364,7 +9443,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="200"/>
+      <c r="AI47" s="205"/>
       <c r="BG47" s="144">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -9400,7 +9479,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="201">
+      <c r="AI48" s="212">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -9514,7 +9593,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="193"/>
+      <c r="AI49" s="200"/>
       <c r="AO49" s="5">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -9621,7 +9700,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="193">
+      <c r="AI50" s="200">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -9743,7 +9822,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="193"/>
+      <c r="AI51" s="200"/>
       <c r="AO51" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9864,7 +9943,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="193">
+      <c r="AI52" s="200">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -9988,7 +10067,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="193"/>
+      <c r="AI53" s="200"/>
       <c r="AO53" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10109,7 +10188,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="193">
+      <c r="AI54" s="200">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -10233,7 +10312,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="193"/>
+      <c r="AI55" s="200"/>
       <c r="AO55" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10354,7 +10433,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="193">
+      <c r="AI56" s="200">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -10478,7 +10557,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="193"/>
+      <c r="AI57" s="200"/>
       <c r="AO57" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10596,7 +10675,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="193">
+      <c r="AI58" s="200">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -10706,7 +10785,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="193"/>
+      <c r="AI59" s="200"/>
       <c r="AO59" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10813,7 +10892,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="193">
+      <c r="AI60" s="200">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -10923,7 +11002,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="194"/>
+      <c r="AI61" s="214"/>
       <c r="AO61" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -11003,22 +11082,78 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -11043,99 +11178,43 @@
     <mergeCell ref="N36:P37"/>
     <mergeCell ref="Q36:S37"/>
     <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T36:T37"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29:AI44">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>27.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46:AI61">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:T39">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11228,13 +11307,13 @@
         <v>74</v>
       </c>
       <c r="AB2" s="140"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="206"/>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="205"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="199"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="202"/>
+      <c r="AI2" s="204"/>
       <c r="AJ2" s="5">
         <f>SUM(AI4:AI10)</f>
         <v>0</v>
@@ -11324,7 +11403,7 @@
       <c r="AF3" s="87"/>
       <c r="AG3" s="88"/>
       <c r="AH3" s="142"/>
-      <c r="AI3" s="200"/>
+      <c r="AI3" s="205"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="139"/>
@@ -11937,25 +12016,25 @@
       <c r="AB12" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="205" t="str">
+      <c r="AC12" s="201" t="str">
         <f>Consuntivo_2_PA!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="208"/>
-      <c r="AE12" s="209"/>
-      <c r="AF12" s="195" t="str">
+      <c r="AD12" s="206"/>
+      <c r="AE12" s="207"/>
+      <c r="AF12" s="208" t="str">
         <f>Consuntivo_2_PA!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="196"/>
-      <c r="AH12" s="197"/>
-      <c r="AI12" s="195" t="str">
+      <c r="AG12" s="209"/>
+      <c r="AH12" s="210"/>
+      <c r="AI12" s="208" t="str">
         <f>Consuntivo_2_PA!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="196"/>
-      <c r="AK12" s="198"/>
-      <c r="AL12" s="199" t="str">
+      <c r="AJ12" s="209"/>
+      <c r="AK12" s="211"/>
+      <c r="AL12" s="204" t="str">
         <f>Consuntivo_2_PA!AE9</f>
         <v>Totale</v>
       </c>
@@ -12002,7 +12081,7 @@
         <f>Consuntivo_2_PA!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="200"/>
+      <c r="AL13" s="205"/>
       <c r="AM13" s="5">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -12053,7 +12132,7 @@
         <f>Consuntivo_2_PA!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="201">
+      <c r="AL14" s="212">
         <f>Consuntivo_2_PA!AE11</f>
         <v>26</v>
       </c>
@@ -12179,7 +12258,7 @@
         <f>Consuntivo_2_PA!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="193"/>
+      <c r="AL15" s="200"/>
       <c r="AO15" s="5">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -12298,7 +12377,7 @@
         <f>Consuntivo_2_PA!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="193">
+      <c r="AL16" s="200">
         <f>Consuntivo_2_PA!AE13</f>
         <v>27</v>
       </c>
@@ -12420,7 +12499,7 @@
         <f>Consuntivo_2_PA!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="193"/>
+      <c r="AL17" s="200"/>
       <c r="AO17" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12539,7 +12618,7 @@
         <f>Consuntivo_2_PA!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="193">
+      <c r="AL18" s="200">
         <f>Consuntivo_2_PA!AE15</f>
         <v>26</v>
       </c>
@@ -12661,7 +12740,7 @@
         <f>Consuntivo_2_PA!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="193"/>
+      <c r="AL19" s="200"/>
       <c r="AO19" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12780,7 +12859,7 @@
         <f>Consuntivo_2_PA!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="193">
+      <c r="AL20" s="200">
         <f>Consuntivo_2_PA!AE17</f>
         <v>28</v>
       </c>
@@ -12902,7 +12981,7 @@
         <f>Consuntivo_2_PA!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="193"/>
+      <c r="AL21" s="200"/>
       <c r="AO21" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13021,7 +13100,7 @@
         <f>Consuntivo_2_PA!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="193">
+      <c r="AL22" s="200">
         <f>Consuntivo_2_PA!AE19</f>
         <v>30</v>
       </c>
@@ -13106,36 +13185,36 @@
       <c r="A23" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="210" t="s">
+      <c r="B23" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="210" t="s">
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210" t="s">
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="210"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="210" t="s">
+      <c r="I23" s="213"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="210"/>
-      <c r="M23" s="210"/>
-      <c r="N23" s="210" t="s">
+      <c r="L23" s="213"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="210"/>
-      <c r="P23" s="210"/>
-      <c r="Q23" s="210" t="s">
+      <c r="O23" s="213"/>
+      <c r="P23" s="213"/>
+      <c r="Q23" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="210"/>
-      <c r="S23" s="210"/>
+      <c r="R23" s="213"/>
+      <c r="S23" s="213"/>
       <c r="T23" s="149" t="s">
         <v>14</v>
       </c>
@@ -13180,7 +13259,7 @@
         <f>Consuntivo_2_PA!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="193"/>
+      <c r="AL23" s="200"/>
       <c r="AO23" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13259,50 +13338,50 @@
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A24" s="202" t="s">
+      <c r="A24" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="204">
+      <c r="B24" s="197">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="204"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="204">
+      <c r="C24" s="197"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
-      <c r="H24" s="203">
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="198">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>9</v>
       </c>
-      <c r="I24" s="203"/>
-      <c r="J24" s="203"/>
-      <c r="K24" s="204">
+      <c r="I24" s="198"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="197">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="204"/>
-      <c r="M24" s="204"/>
-      <c r="N24" s="203">
+      <c r="L24" s="197"/>
+      <c r="M24" s="197"/>
+      <c r="N24" s="198">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="203"/>
-      <c r="P24" s="203"/>
-      <c r="Q24" s="204">
+      <c r="O24" s="198"/>
+      <c r="P24" s="198"/>
+      <c r="Q24" s="197">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="204"/>
-      <c r="S24" s="204"/>
-      <c r="T24" s="204">
+      <c r="R24" s="197"/>
+      <c r="S24" s="197"/>
+      <c r="T24" s="197">
         <f t="shared" ref="T24" si="32">SUM(B24:S25)</f>
         <v>96</v>
       </c>
-      <c r="U24" s="212"/>
+      <c r="U24" s="194"/>
       <c r="AB24" s="44" t="str">
         <f>Consuntivo_2_PA!U21</f>
         <v>Quadrio Giacomo</v>
@@ -13343,7 +13422,7 @@
         <f>Consuntivo_2_PA!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="193">
+      <c r="AL24" s="200">
         <f>Consuntivo_2_PA!AE21</f>
         <v>28</v>
       </c>
@@ -13425,27 +13504,27 @@
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A25" s="202"/>
-      <c r="B25" s="204"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="203"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="204"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="203"/>
-      <c r="O25" s="203"/>
-      <c r="P25" s="203"/>
-      <c r="Q25" s="204"/>
-      <c r="R25" s="204"/>
-      <c r="S25" s="204"/>
-      <c r="T25" s="204"/>
-      <c r="U25" s="212"/>
+      <c r="A25" s="199"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="197"/>
+      <c r="L25" s="197"/>
+      <c r="M25" s="197"/>
+      <c r="N25" s="198"/>
+      <c r="O25" s="198"/>
+      <c r="P25" s="198"/>
+      <c r="Q25" s="197"/>
+      <c r="R25" s="197"/>
+      <c r="S25" s="197"/>
+      <c r="T25" s="197"/>
+      <c r="U25" s="194"/>
       <c r="AB25" s="44">
         <f>Consuntivo_2_PA!U22</f>
         <v>0</v>
@@ -13486,7 +13565,7 @@
         <f>Consuntivo_2_PA!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="193"/>
+      <c r="AL25" s="200"/>
       <c r="AO25" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13565,50 +13644,50 @@
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A26" s="202" t="s">
+      <c r="A26" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="204">
+      <c r="B26" s="197">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204">
+      <c r="C26" s="197"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="204">
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="204"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="203">
+      <c r="I26" s="197"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="198">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>33</v>
       </c>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="204">
+      <c r="L26" s="198"/>
+      <c r="M26" s="198"/>
+      <c r="N26" s="197">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="204"/>
-      <c r="P26" s="204"/>
-      <c r="Q26" s="204">
+      <c r="O26" s="197"/>
+      <c r="P26" s="197"/>
+      <c r="Q26" s="197">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="204"/>
-      <c r="S26" s="204"/>
-      <c r="T26" s="204">
+      <c r="R26" s="197"/>
+      <c r="S26" s="197"/>
+      <c r="T26" s="197">
         <f t="shared" ref="T26" si="33">SUM(B26:S27)</f>
         <v>97</v>
       </c>
-      <c r="U26" s="212"/>
+      <c r="U26" s="194"/>
       <c r="AB26" s="53" t="str">
         <f>Consuntivo_2_PA!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -13649,7 +13728,7 @@
         <f>Consuntivo_2_PA!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="193">
+      <c r="AL26" s="200">
         <f>Consuntivo_2_PA!AE23</f>
         <v>28</v>
       </c>
@@ -13731,27 +13810,27 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="202"/>
-      <c r="B27" s="204"/>
-      <c r="C27" s="204"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="204"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="204"/>
-      <c r="K27" s="203"/>
-      <c r="L27" s="203"/>
-      <c r="M27" s="203"/>
-      <c r="N27" s="204"/>
-      <c r="O27" s="204"/>
-      <c r="P27" s="204"/>
-      <c r="Q27" s="204"/>
-      <c r="R27" s="204"/>
-      <c r="S27" s="204"/>
-      <c r="T27" s="204"/>
-      <c r="U27" s="212"/>
+      <c r="A27" s="199"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="197"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="198"/>
+      <c r="M27" s="198"/>
+      <c r="N27" s="197"/>
+      <c r="O27" s="197"/>
+      <c r="P27" s="197"/>
+      <c r="Q27" s="197"/>
+      <c r="R27" s="197"/>
+      <c r="S27" s="197"/>
+      <c r="T27" s="197"/>
+      <c r="U27" s="194"/>
       <c r="AB27" s="75">
         <f>Consuntivo_2_PA!U24</f>
         <v>0</v>
@@ -13792,7 +13871,7 @@
         <f>Consuntivo_2_PA!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="194"/>
+      <c r="AL27" s="214"/>
       <c r="AO27" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13871,96 +13950,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="202" t="s">
+      <c r="A28" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="204">
+      <c r="B28" s="197">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="204"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="204">
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204">
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>2</v>
       </c>
-      <c r="I28" s="204"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="204">
+      <c r="I28" s="197"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="197">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="204"/>
-      <c r="M28" s="204"/>
-      <c r="N28" s="204">
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+      <c r="N28" s="197">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="204"/>
-      <c r="P28" s="204"/>
-      <c r="Q28" s="203">
+      <c r="O28" s="197"/>
+      <c r="P28" s="197"/>
+      <c r="Q28" s="198">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="203"/>
-      <c r="S28" s="203"/>
-      <c r="T28" s="204">
+      <c r="R28" s="198"/>
+      <c r="S28" s="198"/>
+      <c r="T28" s="197">
         <f t="shared" ref="T28" si="34">SUM(B28:S29)</f>
         <v>96</v>
       </c>
-      <c r="U28" s="212"/>
+      <c r="U28" s="194"/>
       <c r="BG28" s="144">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A29" s="202"/>
-      <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="204"/>
-      <c r="L29" s="204"/>
-      <c r="M29" s="204"/>
-      <c r="N29" s="204"/>
-      <c r="O29" s="204"/>
-      <c r="P29" s="204"/>
-      <c r="Q29" s="203"/>
-      <c r="R29" s="203"/>
-      <c r="S29" s="203"/>
-      <c r="T29" s="204"/>
-      <c r="U29" s="212"/>
+      <c r="A29" s="199"/>
+      <c r="B29" s="197"/>
+      <c r="C29" s="197"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="197"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="197"/>
+      <c r="L29" s="197"/>
+      <c r="M29" s="197"/>
+      <c r="N29" s="197"/>
+      <c r="O29" s="197"/>
+      <c r="P29" s="197"/>
+      <c r="Q29" s="198"/>
+      <c r="R29" s="198"/>
+      <c r="S29" s="198"/>
+      <c r="T29" s="197"/>
+      <c r="U29" s="194"/>
       <c r="AA29" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="195" t="str">
+      <c r="AC29" s="208" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="196"/>
-      <c r="AE29" s="197"/>
-      <c r="AF29" s="195" t="str">
+      <c r="AD29" s="209"/>
+      <c r="AE29" s="210"/>
+      <c r="AF29" s="208" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="196"/>
-      <c r="AH29" s="198"/>
-      <c r="AI29" s="199" t="str">
+      <c r="AG29" s="209"/>
+      <c r="AH29" s="211"/>
+      <c r="AI29" s="204" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -13970,50 +14049,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="202" t="s">
+      <c r="A30" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="204">
+      <c r="B30" s="197">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204">
+      <c r="C30" s="197"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="197">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="204"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="204">
+      <c r="F30" s="197"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="197">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="204"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="203">
+      <c r="I30" s="197"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>31</v>
       </c>
-      <c r="L30" s="203"/>
-      <c r="M30" s="203"/>
-      <c r="N30" s="203">
+      <c r="L30" s="198"/>
+      <c r="M30" s="198"/>
+      <c r="N30" s="198">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="203"/>
-      <c r="P30" s="203"/>
-      <c r="Q30" s="204">
+      <c r="O30" s="198"/>
+      <c r="P30" s="198"/>
+      <c r="Q30" s="197">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="204"/>
-      <c r="S30" s="204"/>
-      <c r="T30" s="204">
+      <c r="R30" s="197"/>
+      <c r="S30" s="197"/>
+      <c r="T30" s="197">
         <f t="shared" ref="T30" si="35">SUM(B30:S31)</f>
         <v>103</v>
       </c>
-      <c r="U30" s="212"/>
+      <c r="U30" s="194"/>
       <c r="AB30" s="141"/>
       <c r="AC30" s="40" t="str">
         <f>'3_PDC'!U7</f>
@@ -14039,7 +14118,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="200"/>
+      <c r="AI30" s="205"/>
       <c r="AK30" s="5">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -14050,27 +14129,27 @@
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A31" s="202"/>
-      <c r="B31" s="204"/>
-      <c r="C31" s="204"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="204"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="203"/>
-      <c r="L31" s="203"/>
-      <c r="M31" s="203"/>
-      <c r="N31" s="203"/>
-      <c r="O31" s="203"/>
-      <c r="P31" s="203"/>
-      <c r="Q31" s="204"/>
-      <c r="R31" s="204"/>
-      <c r="S31" s="204"/>
-      <c r="T31" s="204"/>
-      <c r="U31" s="212"/>
+      <c r="A31" s="199"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="197"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="197"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
+      <c r="M31" s="198"/>
+      <c r="N31" s="198"/>
+      <c r="O31" s="198"/>
+      <c r="P31" s="198"/>
+      <c r="Q31" s="197"/>
+      <c r="R31" s="197"/>
+      <c r="S31" s="197"/>
+      <c r="T31" s="197"/>
+      <c r="U31" s="194"/>
       <c r="AB31" s="44" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -14099,7 +14178,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="201">
+      <c r="AI31" s="212">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -14185,50 +14264,50 @@
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A32" s="202" t="s">
+      <c r="A32" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="204">
+      <c r="B32" s="197">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="204"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="204">
+      <c r="C32" s="197"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="204"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204">
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>2</v>
       </c>
-      <c r="I32" s="204"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="204">
+      <c r="I32" s="197"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="197">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>20</v>
       </c>
-      <c r="L32" s="204"/>
-      <c r="M32" s="204"/>
-      <c r="N32" s="203">
+      <c r="L32" s="197"/>
+      <c r="M32" s="197"/>
+      <c r="N32" s="198">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="203"/>
-      <c r="P32" s="203"/>
-      <c r="Q32" s="204">
+      <c r="O32" s="198"/>
+      <c r="P32" s="198"/>
+      <c r="Q32" s="197">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="204"/>
-      <c r="S32" s="204"/>
-      <c r="T32" s="204">
+      <c r="R32" s="197"/>
+      <c r="S32" s="197"/>
+      <c r="T32" s="197">
         <f t="shared" ref="T32" si="51">SUM(B32:S33)</f>
         <v>102</v>
       </c>
-      <c r="U32" s="212"/>
+      <c r="U32" s="194"/>
       <c r="AB32" s="49">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -14257,7 +14336,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="193"/>
+      <c r="AI32" s="200"/>
       <c r="AO32" s="5">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -14336,27 +14415,27 @@
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A33" s="202"/>
-      <c r="B33" s="204"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="204"/>
-      <c r="M33" s="204"/>
-      <c r="N33" s="203"/>
-      <c r="O33" s="203"/>
-      <c r="P33" s="203"/>
-      <c r="Q33" s="204"/>
-      <c r="R33" s="204"/>
-      <c r="S33" s="204"/>
-      <c r="T33" s="204"/>
-      <c r="U33" s="212"/>
+      <c r="A33" s="199"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="197"/>
+      <c r="N33" s="198"/>
+      <c r="O33" s="198"/>
+      <c r="P33" s="198"/>
+      <c r="Q33" s="197"/>
+      <c r="R33" s="197"/>
+      <c r="S33" s="197"/>
+      <c r="T33" s="197"/>
+      <c r="U33" s="194"/>
       <c r="AB33" s="44" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -14385,7 +14464,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="193">
+      <c r="AI33" s="200">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -14467,50 +14546,50 @@
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A34" s="202" t="s">
+      <c r="A34" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="204">
+      <c r="B34" s="197">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204">
+      <c r="C34" s="197"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="204"/>
-      <c r="G34" s="204"/>
-      <c r="H34" s="204">
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="204"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="203">
+      <c r="I34" s="197"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="198">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>27</v>
       </c>
-      <c r="L34" s="203"/>
-      <c r="M34" s="203"/>
-      <c r="N34" s="203">
+      <c r="L34" s="198"/>
+      <c r="M34" s="198"/>
+      <c r="N34" s="198">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="203"/>
-      <c r="P34" s="203"/>
-      <c r="Q34" s="203">
+      <c r="O34" s="198"/>
+      <c r="P34" s="198"/>
+      <c r="Q34" s="198">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="203"/>
-      <c r="S34" s="203"/>
-      <c r="T34" s="204">
+      <c r="R34" s="198"/>
+      <c r="S34" s="198"/>
+      <c r="T34" s="197">
         <f t="shared" ref="T34" si="55">SUM(B34:S35)</f>
         <v>100</v>
       </c>
-      <c r="U34" s="212"/>
+      <c r="U34" s="194"/>
       <c r="AB34" s="44">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -14539,7 +14618,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="193"/>
+      <c r="AI34" s="200"/>
       <c r="AO34" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14618,27 +14697,27 @@
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A35" s="202"/>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="203"/>
-      <c r="L35" s="203"/>
-      <c r="M35" s="203"/>
-      <c r="N35" s="203"/>
-      <c r="O35" s="203"/>
-      <c r="P35" s="203"/>
-      <c r="Q35" s="203"/>
-      <c r="R35" s="203"/>
-      <c r="S35" s="203"/>
-      <c r="T35" s="204"/>
-      <c r="U35" s="212"/>
+      <c r="A35" s="199"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="197"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="197"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="198"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="198"/>
+      <c r="N35" s="198"/>
+      <c r="O35" s="198"/>
+      <c r="P35" s="198"/>
+      <c r="Q35" s="198"/>
+      <c r="R35" s="198"/>
+      <c r="S35" s="198"/>
+      <c r="T35" s="197"/>
+      <c r="U35" s="194"/>
       <c r="AB35" s="53" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -14667,7 +14746,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="193">
+      <c r="AI35" s="200">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -14756,50 +14835,50 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A36" s="202" t="s">
+      <c r="A36" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="204">
+      <c r="B36" s="197">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="204"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204">
+      <c r="C36" s="197"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204">
+      <c r="F36" s="197"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="197">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="203">
+      <c r="I36" s="197"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="198">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="203"/>
-      <c r="M36" s="203"/>
-      <c r="N36" s="204">
+      <c r="L36" s="198"/>
+      <c r="M36" s="198"/>
+      <c r="N36" s="197">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="204"/>
-      <c r="P36" s="204"/>
-      <c r="Q36" s="204">
+      <c r="O36" s="197"/>
+      <c r="P36" s="197"/>
+      <c r="Q36" s="197">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="204"/>
-      <c r="S36" s="204"/>
-      <c r="T36" s="204">
+      <c r="R36" s="197"/>
+      <c r="S36" s="197"/>
+      <c r="T36" s="197">
         <f t="shared" ref="T36" si="56">SUM(B36:S37)</f>
         <v>96</v>
       </c>
-      <c r="U36" s="212"/>
+      <c r="U36" s="194"/>
       <c r="AB36" s="49">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -14828,7 +14907,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="193"/>
+      <c r="AI36" s="200"/>
       <c r="AK36" s="5">
         <f>SUM(BD31:BF44)</f>
         <v>100</v>
@@ -14911,27 +14990,27 @@
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A37" s="202"/>
-      <c r="B37" s="204"/>
-      <c r="C37" s="204"/>
-      <c r="D37" s="204"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
-      <c r="I37" s="204"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="203"/>
-      <c r="L37" s="203"/>
-      <c r="M37" s="203"/>
-      <c r="N37" s="204"/>
-      <c r="O37" s="204"/>
-      <c r="P37" s="204"/>
-      <c r="Q37" s="204"/>
-      <c r="R37" s="204"/>
-      <c r="S37" s="204"/>
-      <c r="T37" s="204"/>
-      <c r="U37" s="212"/>
+      <c r="A37" s="199"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="198"/>
+      <c r="M37" s="198"/>
+      <c r="N37" s="197"/>
+      <c r="O37" s="197"/>
+      <c r="P37" s="197"/>
+      <c r="Q37" s="197"/>
+      <c r="R37" s="197"/>
+      <c r="S37" s="197"/>
+      <c r="T37" s="197"/>
+      <c r="U37" s="194"/>
       <c r="AB37" s="44" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -14960,7 +15039,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="193">
+      <c r="AI37" s="200">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -15042,50 +15121,50 @@
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A38" s="211" t="s">
+      <c r="A38" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="204">
+      <c r="B38" s="197">
         <f>SUM(B24:D37)</f>
         <v>59</v>
       </c>
-      <c r="C38" s="204"/>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204">
+      <c r="C38" s="197"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="197">
         <f t="shared" ref="E38" si="57">SUM(E24:G37)</f>
         <v>49</v>
       </c>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204">
+      <c r="F38" s="197"/>
+      <c r="G38" s="197"/>
+      <c r="H38" s="197">
         <f>SUM(H24:J37)</f>
         <v>20</v>
       </c>
-      <c r="I38" s="204"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="204">
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="197">
         <f t="shared" ref="K38" si="58">SUM(K24:M37)</f>
         <v>199</v>
       </c>
-      <c r="L38" s="204"/>
-      <c r="M38" s="204"/>
-      <c r="N38" s="204">
+      <c r="L38" s="197"/>
+      <c r="M38" s="197"/>
+      <c r="N38" s="197">
         <f t="shared" ref="N38" si="59">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="204"/>
-      <c r="P38" s="204"/>
-      <c r="Q38" s="204">
+      <c r="O38" s="197"/>
+      <c r="P38" s="197"/>
+      <c r="Q38" s="197">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="204"/>
-      <c r="S38" s="204"/>
-      <c r="T38" s="204">
+      <c r="R38" s="197"/>
+      <c r="S38" s="197"/>
+      <c r="T38" s="197">
         <f>SUM(B38:S39)</f>
         <v>690</v>
       </c>
-      <c r="U38" s="212"/>
+      <c r="U38" s="194"/>
       <c r="AB38" s="44">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -15114,7 +15193,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="193"/>
+      <c r="AI38" s="200"/>
       <c r="AO38" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15193,27 +15272,27 @@
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A39" s="211"/>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="204"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204"/>
-      <c r="H39" s="204"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="204"/>
-      <c r="M39" s="204"/>
-      <c r="N39" s="204"/>
-      <c r="O39" s="204"/>
-      <c r="P39" s="204"/>
-      <c r="Q39" s="204"/>
-      <c r="R39" s="204"/>
-      <c r="S39" s="204"/>
-      <c r="T39" s="204"/>
-      <c r="U39" s="212"/>
+      <c r="A39" s="196"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="197"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="197"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="197"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="197"/>
+      <c r="L39" s="197"/>
+      <c r="M39" s="197"/>
+      <c r="N39" s="197"/>
+      <c r="O39" s="197"/>
+      <c r="P39" s="197"/>
+      <c r="Q39" s="197"/>
+      <c r="R39" s="197"/>
+      <c r="S39" s="197"/>
+      <c r="T39" s="197"/>
+      <c r="U39" s="194"/>
       <c r="AB39" s="53" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -15242,7 +15321,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="193">
+      <c r="AI39" s="200">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -15353,7 +15432,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="193"/>
+      <c r="AI40" s="200"/>
       <c r="AO40" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15461,7 +15540,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="193">
+      <c r="AI41" s="200">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -15572,7 +15651,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="193"/>
+      <c r="AI42" s="200"/>
       <c r="AO42" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15680,7 +15759,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="193">
+      <c r="AI43" s="200">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -15791,7 +15870,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="194"/>
+      <c r="AI44" s="214"/>
       <c r="AO44" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15884,19 +15963,19 @@
       <c r="AB46" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="195" t="str">
+      <c r="AC46" s="208" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="196"/>
-      <c r="AE46" s="197"/>
-      <c r="AF46" s="195" t="str">
+      <c r="AD46" s="209"/>
+      <c r="AE46" s="210"/>
+      <c r="AF46" s="208" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="196"/>
-      <c r="AH46" s="198"/>
-      <c r="AI46" s="199" t="str">
+      <c r="AG46" s="209"/>
+      <c r="AH46" s="211"/>
+      <c r="AI46" s="204" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -15936,7 +16015,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="200"/>
+      <c r="AI47" s="205"/>
       <c r="BG47" s="144">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -15972,7 +16051,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="201">
+      <c r="AI48" s="212">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -16086,7 +16165,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="193"/>
+      <c r="AI49" s="200"/>
       <c r="AO49" s="5">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -16193,7 +16272,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="193">
+      <c r="AI50" s="200">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -16322,7 +16401,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="193"/>
+      <c r="AI51" s="200"/>
       <c r="AO51" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16443,7 +16522,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="193">
+      <c r="AI52" s="200">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -16567,7 +16646,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="193"/>
+      <c r="AI53" s="200"/>
       <c r="AO53" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16688,7 +16767,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="193">
+      <c r="AI54" s="200">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -16812,7 +16891,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="193"/>
+      <c r="AI55" s="200"/>
       <c r="AO55" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16933,7 +17012,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="193">
+      <c r="AI56" s="200">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -17057,7 +17136,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="193"/>
+      <c r="AI57" s="200"/>
       <c r="AO57" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -17175,7 +17254,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="193">
+      <c r="AI58" s="200">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -17285,7 +17364,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="193"/>
+      <c r="AI59" s="200"/>
       <c r="AO59" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -17392,7 +17471,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="193">
+      <c r="AI60" s="200">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -17502,7 +17581,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="194"/>
+      <c r="AI61" s="214"/>
       <c r="AO61" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -17582,24 +17661,76 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N30:P31"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -17624,97 +17755,45 @@
     <mergeCell ref="H34:J35"/>
     <mergeCell ref="K34:M35"/>
     <mergeCell ref="N34:P35"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29:AI44">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>27.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46:AI61">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:T39">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17727,7 +17806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -17832,20 +17911,20 @@
       <c r="N2" s="6">
         <v>30</v>
       </c>
-      <c r="O2" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="205" t="s">
+      <c r="O2" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="205" t="s">
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="207"/>
-      <c r="V2" s="199" t="s">
+      <c r="T2" s="202"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="204" t="s">
         <v>14</v>
       </c>
     </row>
@@ -17888,7 +17967,7 @@
       <c r="N3" s="6">
         <v>20</v>
       </c>
-      <c r="O3" s="214"/>
+      <c r="O3" s="215"/>
       <c r="P3" s="87" t="s">
         <v>26</v>
       </c>
@@ -17907,7 +17986,7 @@
       <c r="U3" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="200"/>
+      <c r="V3" s="205"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -18614,7 +18693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
@@ -19134,25 +19213,25 @@
       <c r="P9" s="172"/>
       <c r="Q9" s="172"/>
       <c r="R9" s="172"/>
-      <c r="U9" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="195" t="s">
+      <c r="U9" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="196"/>
-      <c r="X9" s="197"/>
-      <c r="Y9" s="195" t="s">
+      <c r="W9" s="209"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="196"/>
-      <c r="AA9" s="197"/>
-      <c r="AB9" s="195" t="s">
+      <c r="Z9" s="209"/>
+      <c r="AA9" s="210"/>
+      <c r="AB9" s="208" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="196"/>
-      <c r="AD9" s="198"/>
-      <c r="AE9" s="199" t="s">
+      <c r="AC9" s="209"/>
+      <c r="AD9" s="211"/>
+      <c r="AE9" s="204" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19195,7 +19274,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="U10" s="200"/>
+      <c r="U10" s="205"/>
       <c r="V10" s="40" t="s">
         <v>26</v>
       </c>
@@ -19223,7 +19302,7 @@
       <c r="AD10" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="200"/>
+      <c r="AE10" s="205"/>
     </row>
     <row r="11" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -19276,7 +19355,7 @@
       <c r="R11" s="216" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="212"/>
+      <c r="S11" s="194"/>
       <c r="U11" s="44" t="s">
         <v>7</v>
       </c>
@@ -19307,7 +19386,7 @@
       <c r="AD11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="201">
+      <c r="AE11" s="212">
         <f>SUM(Z11:Z12,AC11:AC12,W11:W12)</f>
         <v>26</v>
       </c>
@@ -19371,7 +19450,7 @@
       <c r="AB12" s="50"/>
       <c r="AC12" s="51"/>
       <c r="AD12" s="24"/>
-      <c r="AE12" s="193"/>
+      <c r="AE12" s="200"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
@@ -19448,7 +19527,7 @@
       <c r="AD13" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="193">
+      <c r="AE13" s="200">
         <f t="shared" ref="AE13" si="7">SUM(Z13:Z14,AC13:AC14,W13:W14)</f>
         <v>27</v>
       </c>
@@ -19518,7 +19597,7 @@
       <c r="AB14" s="45"/>
       <c r="AC14" s="46"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="193"/>
+      <c r="AE14" s="200"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
@@ -19599,7 +19678,7 @@
       <c r="AD15" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="AE15" s="193">
+      <c r="AE15" s="200">
         <f t="shared" ref="AE15" si="8">SUM(Z15:Z16,AC15:AC16,W15:W16)</f>
         <v>26</v>
       </c>
@@ -19675,7 +19754,7 @@
       <c r="AD16" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AE16" s="193"/>
+      <c r="AE16" s="200"/>
     </row>
     <row r="17" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -19756,7 +19835,7 @@
       <c r="AD17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AE17" s="193">
+      <c r="AE17" s="200">
         <f t="shared" ref="AE17" si="9">SUM(Z17:Z18,AC17:AC18,W17:W18)</f>
         <v>28</v>
       </c>
@@ -19822,7 +19901,7 @@
       <c r="AD18" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" s="193"/>
+      <c r="AE18" s="200"/>
     </row>
     <row r="19" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U19" s="53" t="s">
@@ -19855,7 +19934,7 @@
       <c r="AD19" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" s="193">
+      <c r="AE19" s="200">
         <f t="shared" ref="AE19" si="10">SUM(Z19:Z20,AC19:AC20,W19:W20)</f>
         <v>30</v>
       </c>
@@ -19902,7 +19981,7 @@
         <v>2</v>
       </c>
       <c r="AD20" s="24"/>
-      <c r="AE20" s="193"/>
+      <c r="AE20" s="200"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="U21" s="44" t="s">
@@ -19935,7 +20014,7 @@
       <c r="AD21" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="AE21" s="193">
+      <c r="AE21" s="200">
         <f t="shared" ref="AE21" si="11">SUM(Z21:Z22,AC21:AC22,W21:W22)</f>
         <v>28</v>
       </c>
@@ -19952,7 +20031,7 @@
       <c r="AB22" s="45"/>
       <c r="AC22" s="46"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="193"/>
+      <c r="AE22" s="200"/>
     </row>
     <row r="23" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U23" s="53" t="s">
@@ -19985,7 +20064,7 @@
       <c r="AD23" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AE23" s="193">
+      <c r="AE23" s="200">
         <f t="shared" ref="AE23" si="12">SUM(Z23:Z24,AC23:AC24,W23:W24)</f>
         <v>28</v>
       </c>
@@ -20052,7 +20131,7 @@
       <c r="AD24" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" s="194"/>
+      <c r="AE24" s="214"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
@@ -20275,17 +20354,17 @@
       <c r="R28" s="6">
         <v>15</v>
       </c>
-      <c r="U28" s="215"/>
-      <c r="V28" s="215"/>
-      <c r="W28" s="215"/>
-      <c r="X28" s="215"/>
-      <c r="Y28" s="215"/>
-      <c r="Z28" s="215"/>
-      <c r="AA28" s="215"/>
-      <c r="AB28" s="215"/>
-      <c r="AC28" s="215"/>
-      <c r="AD28" s="215"/>
-      <c r="AE28" s="215"/>
+      <c r="U28" s="217"/>
+      <c r="V28" s="217"/>
+      <c r="W28" s="217"/>
+      <c r="X28" s="217"/>
+      <c r="Y28" s="217"/>
+      <c r="Z28" s="217"/>
+      <c r="AA28" s="217"/>
+      <c r="AB28" s="217"/>
+      <c r="AC28" s="217"/>
+      <c r="AD28" s="217"/>
+      <c r="AE28" s="217"/>
     </row>
     <row r="29" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -20334,7 +20413,7 @@
       <c r="R29" s="6">
         <v>22</v>
       </c>
-      <c r="U29" s="215"/>
+      <c r="U29" s="217"/>
       <c r="V29" s="73"/>
       <c r="W29" s="73"/>
       <c r="X29" s="73"/>
@@ -20344,7 +20423,7 @@
       <c r="AB29" s="73"/>
       <c r="AC29" s="73"/>
       <c r="AD29" s="73"/>
-      <c r="AE29" s="215"/>
+      <c r="AE29" s="217"/>
     </row>
     <row r="30" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
@@ -20407,7 +20486,7 @@
       <c r="AB30" s="73"/>
       <c r="AC30" s="73"/>
       <c r="AD30" s="73"/>
-      <c r="AE30" s="215"/>
+      <c r="AE30" s="217"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
@@ -20459,7 +20538,7 @@
       <c r="AB31" s="73"/>
       <c r="AC31" s="73"/>
       <c r="AD31" s="73"/>
-      <c r="AE31" s="215"/>
+      <c r="AE31" s="217"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
@@ -20509,7 +20588,7 @@
       <c r="AB32" s="73"/>
       <c r="AC32" s="73"/>
       <c r="AD32" s="73"/>
-      <c r="AE32" s="215"/>
+      <c r="AE32" s="217"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
@@ -20555,7 +20634,7 @@
       <c r="AB33" s="73"/>
       <c r="AC33" s="73"/>
       <c r="AD33" s="73"/>
-      <c r="AE33" s="215"/>
+      <c r="AE33" s="217"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
@@ -20605,7 +20684,7 @@
       <c r="AB34" s="73"/>
       <c r="AC34" s="73"/>
       <c r="AD34" s="73"/>
-      <c r="AE34" s="215"/>
+      <c r="AE34" s="217"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
@@ -20655,7 +20734,7 @@
       <c r="AB35" s="73"/>
       <c r="AC35" s="73"/>
       <c r="AD35" s="73"/>
-      <c r="AE35" s="215"/>
+      <c r="AE35" s="217"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
@@ -20701,7 +20780,7 @@
       <c r="AB36" s="73"/>
       <c r="AC36" s="73"/>
       <c r="AD36" s="73"/>
-      <c r="AE36" s="215"/>
+      <c r="AE36" s="217"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
@@ -20751,7 +20830,7 @@
       <c r="AB37" s="73"/>
       <c r="AC37" s="73"/>
       <c r="AD37" s="181"/>
-      <c r="AE37" s="215"/>
+      <c r="AE37" s="217"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
@@ -20801,7 +20880,7 @@
       <c r="AB38" s="73"/>
       <c r="AC38" s="73"/>
       <c r="AD38" s="73"/>
-      <c r="AE38" s="215"/>
+      <c r="AE38" s="217"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="59" t="s">
@@ -20851,7 +20930,7 @@
       <c r="AB39" s="73"/>
       <c r="AC39" s="73"/>
       <c r="AD39" s="73"/>
-      <c r="AE39" s="215"/>
+      <c r="AE39" s="217"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
@@ -20901,7 +20980,7 @@
       <c r="AB40" s="73"/>
       <c r="AC40" s="73"/>
       <c r="AD40" s="73"/>
-      <c r="AE40" s="215"/>
+      <c r="AE40" s="217"/>
     </row>
     <row r="41" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
@@ -20947,7 +21026,7 @@
       <c r="AB41" s="73"/>
       <c r="AC41" s="73"/>
       <c r="AD41" s="73"/>
-      <c r="AE41" s="215"/>
+      <c r="AE41" s="217"/>
     </row>
     <row r="42" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U42" s="73"/>
@@ -20960,7 +21039,7 @@
       <c r="AB42" s="73"/>
       <c r="AC42" s="73"/>
       <c r="AD42" s="73"/>
-      <c r="AE42" s="215"/>
+      <c r="AE42" s="217"/>
     </row>
     <row r="43" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="70" t="s">
@@ -20990,7 +21069,7 @@
       <c r="AB43" s="73"/>
       <c r="AC43" s="73"/>
       <c r="AD43" s="73"/>
-      <c r="AE43" s="215"/>
+      <c r="AE43" s="217"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="U44" s="73"/>
@@ -21007,11 +21086,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="AE42:AE43"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AE29"/>
     <mergeCell ref="AE21:AE22"/>
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AE9:AE10"/>
@@ -21020,48 +21106,41 @@
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="AE42:AE43"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Z26">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="notEqual">
       <formula>$E$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>$E$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="notEqual">
       <formula>$D$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>$D$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC26">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="notEqual">
       <formula>$F$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>$F$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21075,7 +21154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
@@ -21420,20 +21499,20 @@
       <c r="R6" s="6">
         <v>15</v>
       </c>
-      <c r="T6" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="195" t="s">
+      <c r="T6" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="196"/>
-      <c r="W6" s="197"/>
-      <c r="X6" s="195" t="s">
+      <c r="V6" s="209"/>
+      <c r="W6" s="210"/>
+      <c r="X6" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="198"/>
-      <c r="AA6" s="199" t="s">
+      <c r="Y6" s="209"/>
+      <c r="Z6" s="211"/>
+      <c r="AA6" s="204" t="s">
         <v>14</v>
       </c>
     </row>
@@ -21487,7 +21566,7 @@
         <f>SUM(Q2:Q6)</f>
         <v>6992</v>
       </c>
-      <c r="T7" s="200"/>
+      <c r="T7" s="205"/>
       <c r="U7" s="40" t="s">
         <v>26</v>
       </c>
@@ -21506,7 +21585,7 @@
       <c r="Z7" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="200"/>
+      <c r="AA7" s="205"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -21570,7 +21649,7 @@
       <c r="Z8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="201">
+      <c r="AA8" s="212">
         <f>SUM(V8:V9,Y8:Y9)</f>
         <v>52</v>
       </c>
@@ -21623,7 +21702,7 @@
       <c r="Z9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="193"/>
+      <c r="AA9" s="200"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
@@ -21685,7 +21764,7 @@
       <c r="Z10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="193">
+      <c r="AA10" s="200">
         <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
         <v>52</v>
       </c>
@@ -21748,7 +21827,7 @@
       <c r="Z11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="193"/>
+      <c r="AA11" s="200"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
@@ -21785,9 +21864,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="217"/>
-      <c r="P12" s="219"/>
-      <c r="Q12" s="220"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="220"/>
+      <c r="Q12" s="221"/>
       <c r="T12" s="53" t="s">
         <v>49</v>
       </c>
@@ -21809,7 +21888,7 @@
       <c r="Z12" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="193">
+      <c r="AA12" s="200">
         <f t="shared" ref="AA12" si="8">SUM(V12:V13,Y12:Y13)</f>
         <v>52</v>
       </c>
@@ -21855,7 +21934,7 @@
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="O13" s="218"/>
+      <c r="O13" s="219"/>
       <c r="P13" s="112"/>
       <c r="Q13" s="124"/>
       <c r="T13" s="49"/>
@@ -21877,7 +21956,7 @@
       <c r="Z13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="193"/>
+      <c r="AA13" s="200"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
@@ -21942,7 +22021,7 @@
       <c r="Z14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="193">
+      <c r="AA14" s="200">
         <f t="shared" ref="AA14" si="9">SUM(V14:V15,Y14:Y15)</f>
         <v>57</v>
       </c>
@@ -22004,7 +22083,7 @@
       <c r="Z15" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="193"/>
+      <c r="AA15" s="200"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
@@ -22071,7 +22150,7 @@
       <c r="Z16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" s="193">
+      <c r="AA16" s="200">
         <f t="shared" ref="AA16" si="10">SUM(V16:V17,Y16:Y17)</f>
         <v>54</v>
       </c>
@@ -22137,7 +22216,7 @@
       <c r="Z17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="193"/>
+      <c r="AA17" s="200"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -22198,7 +22277,7 @@
       <c r="Z18" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="193">
+      <c r="AA18" s="200">
         <f t="shared" ref="AA18" si="11">SUM(V18:V19,Y18:Y19)</f>
         <v>54</v>
       </c>
@@ -22266,7 +22345,7 @@
       <c r="Z19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="193"/>
+      <c r="AA19" s="200"/>
     </row>
     <row r="20" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
@@ -22327,7 +22406,7 @@
       <c r="Z20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="193">
+      <c r="AA20" s="200">
         <f t="shared" ref="AA20" si="12">SUM(V20:V21,Y20:Y21)</f>
         <v>52</v>
       </c>
@@ -22389,7 +22468,7 @@
       <c r="Z21" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="194"/>
+      <c r="AA21" s="214"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
@@ -22704,12 +22783,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:Q12"/>
@@ -22717,20 +22790,26 @@
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="notEqual">
       <formula>$E$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>$E$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="notEqual">
       <formula>$D$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>$D$28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22742,10 +22821,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="P19" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22930,20 +23009,20 @@
       <c r="R3" s="6">
         <v>20</v>
       </c>
-      <c r="T3" s="199" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="195" t="s">
+      <c r="T3" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="196"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="195" t="s">
+      <c r="V3" s="209"/>
+      <c r="W3" s="210"/>
+      <c r="X3" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="199" t="s">
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="211"/>
+      <c r="AA3" s="204" t="s">
         <v>14</v>
       </c>
     </row>
@@ -22995,7 +23074,7 @@
       <c r="R4" s="6">
         <v>15</v>
       </c>
-      <c r="T4" s="200"/>
+      <c r="T4" s="205"/>
       <c r="U4" s="40" t="s">
         <v>26</v>
       </c>
@@ -23014,7 +23093,7 @@
       <c r="Z4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="200"/>
+      <c r="AA4" s="205"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="96" t="s">
@@ -23089,7 +23168,7 @@
       <c r="Z5" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="201">
+      <c r="AA5" s="212">
         <f>SUM(V5:V6,Y5:Y6)</f>
         <v>18</v>
       </c>
@@ -23159,7 +23238,7 @@
       <c r="X6" s="131"/>
       <c r="Y6" s="51"/>
       <c r="Z6" s="133"/>
-      <c r="AA6" s="193"/>
+      <c r="AA6" s="200"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -23227,7 +23306,7 @@
       <c r="Z7" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="193">
+      <c r="AA7" s="200">
         <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
         <v>18</v>
       </c>
@@ -23283,7 +23362,7 @@
       <c r="Z8" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="193"/>
+      <c r="AA8" s="200"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="59" t="s">
@@ -23344,7 +23423,7 @@
       <c r="Z9" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="193">
+      <c r="AA9" s="200">
         <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
         <v>18</v>
       </c>
@@ -23390,7 +23469,7 @@
       <c r="X10" s="131"/>
       <c r="Y10" s="51"/>
       <c r="Z10" s="133"/>
-      <c r="AA10" s="193"/>
+      <c r="AA10" s="200"/>
     </row>
     <row r="11" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -23425,7 +23504,7 @@
       <c r="Z11" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA11" s="193">
+      <c r="AA11" s="200">
         <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
         <v>18</v>
       </c>
@@ -23468,9 +23547,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="195"/>
-      <c r="P12" s="196"/>
-      <c r="Q12" s="197"/>
+      <c r="O12" s="208"/>
+      <c r="P12" s="209"/>
+      <c r="Q12" s="210"/>
       <c r="T12" s="44"/>
       <c r="U12" s="130"/>
       <c r="V12" s="46"/>
@@ -23478,7 +23557,7 @@
       <c r="X12" s="130"/>
       <c r="Y12" s="46"/>
       <c r="Z12" s="73"/>
-      <c r="AA12" s="193"/>
+      <c r="AA12" s="200"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -23487,7 +23566,7 @@
       <c r="D13" s="69"/>
       <c r="E13" s="69"/>
       <c r="F13" s="8"/>
-      <c r="O13" s="221"/>
+      <c r="O13" s="222"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="39"/>
       <c r="T13" s="53" t="s">
@@ -23511,12 +23590,12 @@
       <c r="Z13" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="193">
+      <c r="AA13" s="200">
         <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -23533,15 +23612,27 @@
       <c r="X14" s="131"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="133"/>
-      <c r="AA14" s="193"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="109"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="8"/>
+      <c r="AA14" s="200"/>
+    </row>
+    <row r="15" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="48"/>
@@ -23566,18 +23657,29 @@
       <c r="Z15" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="193">
+      <c r="AA15" s="200">
         <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="123">
+        <v>16</v>
+      </c>
+      <c r="E16" s="123"/>
+      <c r="F16" s="25">
+        <f>SUM(D16:E16)</f>
+        <v>16</v>
+      </c>
       <c r="O16" s="21"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="48"/>
@@ -23588,15 +23690,26 @@
       <c r="X16" s="130"/>
       <c r="Y16" s="46"/>
       <c r="Z16" s="73"/>
-      <c r="AA16" s="193"/>
+      <c r="AA16" s="200"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="60">
+        <v>8</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="20">
+        <f t="shared" ref="F17:F24" si="14">SUM(D17:E17)</f>
+        <v>8</v>
+      </c>
       <c r="O17" s="21"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="48"/>
@@ -23621,18 +23734,25 @@
       <c r="Z17" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="193">
-        <f t="shared" ref="AA17" si="14">SUM(V17:V18,Y17:Y18)</f>
+      <c r="AA17" s="200">
+        <f t="shared" ref="AA17" si="15">SUM(V17:V18,Y17:Y18)</f>
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="123">
+        <v>2</v>
+      </c>
+      <c r="E18" s="123"/>
+      <c r="F18" s="25">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
       <c r="O18" s="21"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="48"/>
@@ -23643,26 +23763,48 @@
       <c r="X18" s="136"/>
       <c r="Y18" s="77"/>
       <c r="Z18" s="138"/>
-      <c r="AA18" s="194"/>
+      <c r="AA18" s="214"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="119">
+        <v>20</v>
+      </c>
+      <c r="E19" s="119"/>
+      <c r="F19" s="48">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
       <c r="O19" s="21"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="48"/>
     </row>
     <row r="20" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="8"/>
+      <c r="A20" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="60">
+        <v>6</v>
+      </c>
+      <c r="E20" s="60"/>
+      <c r="F20" s="20">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
       <c r="O20" s="17"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="20"/>
@@ -23676,55 +23818,202 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="8"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="123">
+        <v>2</v>
+      </c>
+      <c r="E21" s="123"/>
+      <c r="F21" s="25">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
       <c r="O21" s="66"/>
       <c r="P21" s="67"/>
       <c r="Q21" s="68"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="119">
+        <v>50</v>
+      </c>
+      <c r="F22" s="48">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="T22" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="V22" s="209"/>
+      <c r="W22" s="210"/>
+      <c r="X22" s="208" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y22" s="209"/>
+      <c r="Z22" s="211"/>
+      <c r="AA22" s="204" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="60">
+        <v>12</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="T23" s="205"/>
+      <c r="U23" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y23" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA23" s="205"/>
+    </row>
+    <row r="24" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64">
+        <v>8</v>
+      </c>
+      <c r="F24" s="65">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="T24" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="46">
+        <v>4</v>
+      </c>
+      <c r="W24" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="X24" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y24" s="46">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA24" s="212">
+        <f>SUM(V24:V25,Y24:Y25)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="F25" s="8"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="V25" s="51">
+        <v>4</v>
+      </c>
+      <c r="W25" s="132" t="s">
+        <v>66</v>
+      </c>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="133"/>
+      <c r="AA25" s="200"/>
+    </row>
+    <row r="26" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="135">
+        <f>SUM(D16:D24)</f>
+        <v>54</v>
+      </c>
+      <c r="E26" s="135">
+        <f t="shared" ref="E26:F26" si="16">SUM(E16:E24)</f>
+        <v>70</v>
+      </c>
+      <c r="F26" s="135">
+        <f t="shared" si="16"/>
+        <v>124</v>
+      </c>
+      <c r="T26" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="U26" s="130" t="s">
+        <v>25</v>
+      </c>
+      <c r="V26" s="46">
+        <v>8</v>
+      </c>
+      <c r="W26" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="X26" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y26" s="46">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="193" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA26" s="200">
+        <f t="shared" ref="AA26" si="17">SUM(V26:V27,Y26:Y27)</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
@@ -23733,6 +24022,20 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="130"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" s="46">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="193" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA27" s="200"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
@@ -23749,6 +24052,31 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
+      <c r="T28" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="U28" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="V28" s="55">
+        <v>8</v>
+      </c>
+      <c r="W28" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="X28" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y28" s="55">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA28" s="200">
+        <f t="shared" ref="AA28" si="18">SUM(V28:V29,Y28:Y29)</f>
+        <v>18</v>
+      </c>
       <c r="AB28" s="69"/>
       <c r="AC28" s="69"/>
       <c r="AD28" s="69"/>
@@ -23759,6 +24087,14 @@
       <c r="AI28" s="8"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="T29" s="49"/>
+      <c r="U29" s="131"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="131"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="133"/>
+      <c r="AA29" s="200"/>
       <c r="AB29" s="69"/>
       <c r="AC29" s="69"/>
       <c r="AD29" s="69"/>
@@ -23769,6 +24105,31 @@
       <c r="AI29" s="8"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="T30" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="U30" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="V30" s="46">
+        <v>8</v>
+      </c>
+      <c r="W30" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="X30" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y30" s="46">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA30" s="200">
+        <f t="shared" ref="AA30" si="19">SUM(V30:V31,Y30:Y31)</f>
+        <v>18</v>
+      </c>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="69"/>
@@ -23779,6 +24140,14 @@
       <c r="AI30" s="8"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="T31" s="44"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="130"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="193"/>
+      <c r="AA31" s="200"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
@@ -23789,6 +24158,31 @@
       <c r="AI31" s="8"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="T32" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="V32" s="55">
+        <v>8</v>
+      </c>
+      <c r="W32" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="X32" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y32" s="55">
+        <v>10</v>
+      </c>
+      <c r="Z32" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA32" s="200">
+        <f t="shared" ref="AA32" si="20">SUM(V32:V33,Y32:Y33)</f>
+        <v>18</v>
+      </c>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
@@ -23798,14 +24192,113 @@
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
     </row>
+    <row r="33" spans="20:27" x14ac:dyDescent="0.2">
+      <c r="T33" s="49"/>
+      <c r="U33" s="131"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="131"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="133"/>
+      <c r="AA33" s="200"/>
+    </row>
+    <row r="34" spans="20:27" x14ac:dyDescent="0.2">
+      <c r="T34" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="U34" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="V34" s="46">
+        <v>8</v>
+      </c>
+      <c r="W34" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="X34" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y34" s="46">
+        <v>10</v>
+      </c>
+      <c r="Z34" s="193" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA34" s="200">
+        <f t="shared" ref="AA34" si="21">SUM(V34:V35,Y34:Y35)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="20:27" x14ac:dyDescent="0.2">
+      <c r="T35" s="44"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="130"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="193"/>
+      <c r="AA35" s="200"/>
+    </row>
+    <row r="36" spans="20:27" x14ac:dyDescent="0.2">
+      <c r="T36" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="U36" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="V36" s="55">
+        <v>6</v>
+      </c>
+      <c r="W36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="X36" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y36" s="55">
+        <v>10</v>
+      </c>
+      <c r="Z36" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA36" s="200">
+        <f t="shared" ref="AA36" si="22">SUM(V36:V37,Y36:Y37)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="20:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T37" s="75"/>
+      <c r="U37" s="136"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="136"/>
+      <c r="Y37" s="77"/>
+      <c r="Z37" s="138"/>
+      <c r="AA37" s="214"/>
+    </row>
+    <row r="39" spans="20:27" x14ac:dyDescent="0.2">
+      <c r="V39" s="5">
+        <f>SUM(V24:V36)</f>
+        <v>54</v>
+      </c>
+      <c r="Y39" s="5">
+        <f>SUM(Y24:Y37)</f>
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA5:AA6"/>
+  <mergeCells count="24">
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AA24:AA25"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA11:AA12"/>
@@ -23813,20 +24306,42 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA5:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="notEqual">
       <formula>$E$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="notEqual">
       <formula>$D$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>$D$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y39">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
+      <formula>$E$12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>$E$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V39">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="notEqual">
+      <formula>$D$12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23839,8 +24354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T39" sqref="T39:T40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23886,24 +24401,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="5">
+        <f>SUM('4_VV'!V24)</f>
         <v>4</v>
       </c>
       <c r="C2" s="5">
+        <f>SUM('4_VV'!Y24)</f>
         <v>10</v>
       </c>
       <c r="D2" s="5">
+        <f>SUM(Consuntivo_2_PA!W11)</f>
         <v>9</v>
       </c>
       <c r="E2" s="5">
+        <f>SUM('3_PDC'!Y8)</f>
         <v>10</v>
       </c>
       <c r="F2" s="5">
+        <f>SUM('3_PDC'!Y9,'3_PDC'!V8,Consuntivo_2_PA!Z11,Consuntivo_2_PA!AC11)</f>
         <v>59</v>
       </c>
       <c r="G2" s="5">
+        <f>SUM('4_VV'!V25)</f>
         <v>4</v>
       </c>
       <c r="H2" s="5">
+        <f>SUM(B2:G2)</f>
         <v>96</v>
       </c>
     </row>
@@ -23912,24 +24434,30 @@
         <v>11</v>
       </c>
       <c r="B3" s="5">
+        <f>SUM('4_VV'!Y26,Consuntivo_2_PA!W13)</f>
         <v>13</v>
       </c>
       <c r="C3" s="5">
+        <f>SUM('4_VV'!Y27,'3_PDC'!V11)</f>
         <v>10</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5">
+        <f>SUM('3_PDC'!V10,Consuntivo_2_PA!Z13)</f>
         <v>33</v>
       </c>
       <c r="F3" s="5">
+        <f>SUM('3_PDC'!Y10,Consuntivo_2_PA!AC13,Consuntivo_2_PA!W14)</f>
         <v>29</v>
       </c>
       <c r="G3" s="5">
+        <f>SUM('4_VV'!V26,'3_PDC'!Y11)</f>
         <v>12</v>
       </c>
       <c r="H3" s="5">
+        <f t="shared" ref="H3:H9" si="0">SUM(B3:G3)</f>
         <v>97</v>
       </c>
     </row>
@@ -23938,24 +24466,31 @@
         <v>10</v>
       </c>
       <c r="B4" s="5">
+        <f>SUM('3_PDC'!Y12)</f>
         <v>10</v>
       </c>
       <c r="C4" s="5">
+        <f>SUM(Consuntivo_2_PA!AC16)</f>
         <v>4</v>
       </c>
       <c r="D4" s="5">
+        <f>SUM(Consuntivo_2_PA!W15)</f>
         <v>2</v>
       </c>
       <c r="E4" s="5">
+        <f>SUM('4_VV'!Y28,'3_PDC'!V13,Consuntivo_2_PA!AC15)</f>
         <v>27</v>
       </c>
       <c r="F4" s="5">
+        <f>SUM('4_VV'!V28,'3_PDC'!Y13,Consuntivo_2_PA!W16,Consuntivo_2_PA!Z17)</f>
         <v>33</v>
       </c>
       <c r="G4" s="5">
+        <f>SUM('3_PDC'!V12)</f>
         <v>20</v>
       </c>
       <c r="H4" s="5">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="AL4" s="5">
@@ -23985,24 +24520,30 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
+        <f>SUM('3_PDC'!V14,Consuntivo_2_PA!AC17)</f>
         <v>15</v>
       </c>
       <c r="C5" s="5">
+        <f>SUM('3_PDC'!Y15)</f>
         <v>4</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5">
+        <f>SUM('4_VV'!V30,'4_VV'!Y30,Consuntivo_2_PA!W17,Consuntivo_2_PA!AC18)</f>
         <v>31</v>
       </c>
       <c r="F5" s="5">
+        <f>SUM('3_PDC'!V15,Consuntivo_2_PA!W18,Consuntivo_2_PA!Z17)</f>
         <v>35</v>
       </c>
       <c r="G5" s="5">
+        <f>SUM('3_PDC'!Y14)</f>
         <v>18</v>
       </c>
       <c r="H5" s="5">
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
     </row>
@@ -24029,6 +24570,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="5">
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="AL6" s="5">
@@ -24076,6 +24618,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="5">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -24102,6 +24645,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="5">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="AL8" s="5">
@@ -24131,24 +24675,31 @@
         <v>14</v>
       </c>
       <c r="B9" s="5">
+        <f>SUM(B2:B8)</f>
         <v>59</v>
       </c>
       <c r="C9" s="5">
+        <f t="shared" ref="C9:H9" si="1">SUM(C2:C8)</f>
         <v>49</v>
       </c>
       <c r="D9" s="5">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="E9" s="5">
+        <f t="shared" si="1"/>
         <v>199</v>
       </c>
       <c r="F9" s="5">
+        <f t="shared" si="1"/>
         <v>243</v>
       </c>
       <c r="G9" s="5">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H9" s="5">
+        <f t="shared" si="1"/>
         <v>690</v>
       </c>
     </row>
@@ -24308,7 +24859,7 @@
         <v>49</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" ref="G41:G45" si="0">F41*H41</f>
+        <f t="shared" ref="G41:G45" si="2">F41*H41</f>
         <v>980</v>
       </c>
       <c r="H41" s="5">
@@ -24325,7 +24876,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="H42" s="5">
@@ -24342,7 +24893,7 @@
         <v>199</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2985</v>
       </c>
       <c r="H43" s="5">
@@ -24359,7 +24910,7 @@
         <v>243</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5346</v>
       </c>
       <c r="H44" s="5">
@@ -24376,7 +24927,7 @@
         <v>120</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
       <c r="H45" s="5">

--- a/RA/Esterni/Piano di Progetto/Ripartizione ruoli e ore2.xlsx
+++ b/RA/Esterni/Piano di Progetto/Ripartizione ruoli e ore2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="158">
   <si>
     <t>Membro</t>
   </si>
@@ -488,6 +488,12 @@
   </si>
   <si>
     <t>(+2)</t>
+  </si>
+  <si>
+    <t>NUOVI VALORI</t>
+  </si>
+  <si>
+    <t>ORE VECCHIE</t>
   </si>
 </sst>
 </file>
@@ -1648,42 +1654,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1698,23 +1672,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1735,7 +1741,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="30">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1858,33 +1864,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1892,18 +1872,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2218,12 +2186,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="92598656"/>
-        <c:axId val="92600192"/>
+        <c:axId val="95416704"/>
+        <c:axId val="95418240"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="92598656"/>
+        <c:axId val="95416704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92600192"/>
+        <c:crossAx val="95418240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +2208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92600192"/>
+        <c:axId val="95418240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,14 +2219,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92598656"/>
+        <c:crossAx val="95416704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2441,12 +2408,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="55483776"/>
-        <c:axId val="55501952"/>
+        <c:axId val="95264128"/>
+        <c:axId val="95282304"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="55483776"/>
+        <c:axId val="95264128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,7 +2422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55501952"/>
+        <c:crossAx val="95282304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2463,7 +2430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55501952"/>
+        <c:axId val="95282304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2475,14 +2442,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55483776"/>
+        <c:crossAx val="95264128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2676,12 +2642,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="85863424"/>
-        <c:axId val="85877504"/>
+        <c:axId val="95562752"/>
+        <c:axId val="95576832"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="85863424"/>
+        <c:axId val="95562752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,7 +2656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85877504"/>
+        <c:crossAx val="95576832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2698,7 +2664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85877504"/>
+        <c:axId val="95576832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2710,7 +2676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85863424"/>
+        <c:crossAx val="95562752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2936,12 +2902,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="85891328"/>
-        <c:axId val="85897216"/>
+        <c:axId val="95590656"/>
+        <c:axId val="95600640"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="85891328"/>
+        <c:axId val="95590656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2950,7 +2916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85897216"/>
+        <c:crossAx val="95600640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2958,7 +2924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85897216"/>
+        <c:axId val="95600640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2969,14 +2935,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85891328"/>
+        <c:crossAx val="95590656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3032,7 +2997,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3310,22 +3275,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51</c:v>
@@ -3460,25 +3425,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3493,12 +3458,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="40720256"/>
-        <c:axId val="40721792"/>
+        <c:axId val="102715776"/>
+        <c:axId val="102717312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40720256"/>
+        <c:axId val="102715776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3507,7 +3471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40721792"/>
+        <c:crossAx val="102717312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3515,7 +3479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40721792"/>
+        <c:axId val="102717312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3526,7 +3490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40720256"/>
+        <c:crossAx val="102715776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3581,7 +3545,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Grafici!$E$40:$E$45</c:f>
+              <c:f>Grafici!$B$17:$G$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3607,7 +3571,327 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Grafici!$F$40:$F$45</c:f>
+              <c:f>Grafici!$B$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Preventivo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Grafici!$B$17:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Responsabile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amministratore</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analista</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Verificatore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Progettista</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Programmatore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Grafici!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Consuntivo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Grafici!$B$17:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Responsabile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amministratore</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analista</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Verificatore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Progettista</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Programmatore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Grafici!$B$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="94768512"/>
+        <c:axId val="94774400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="94768512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94774400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94774400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94768512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Grafici!$B$13:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Responsabile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amministratore</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Analista</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Verificatore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Progettista</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Programmatore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Grafici!$B$14:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3645,130 +3929,13 @@
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Grafici!$E$40:$E$45</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Responsabile</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Amministratore</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Analista</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Verificatore</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Progettista</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Programmatore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Grafici!$G$40:$G$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1770</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2985</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5346</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3942,20 +4109,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvPr id="9" name="Grafico 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3972,20 +4139,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvPr id="10" name="Grafico 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3995,6 +4162,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Grafico 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4414,19 +4611,19 @@
         <f>'1_AN'!O2</f>
         <v>Membro</v>
       </c>
-      <c r="AC2" s="201" t="str">
+      <c r="AC2" s="206" t="str">
         <f>'1_AN'!P2</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="201" t="str">
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="208"/>
+      <c r="AF2" s="206" t="str">
         <f>'1_AN'!S2</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="202"/>
-      <c r="AI2" s="204" t="str">
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="200" t="str">
         <f>'1_AN'!V2</f>
         <v>Totale</v>
       </c>
@@ -4560,7 +4757,7 @@
         <f>'1_AN'!U3</f>
         <v>Fase</v>
       </c>
-      <c r="AI3" s="205"/>
+      <c r="AI3" s="201"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="139" t="s">
@@ -5443,25 +5640,25 @@
       <c r="AB12" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="201" t="str">
+      <c r="AC12" s="206" t="str">
         <f>Consuntivo_2_PA!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="206"/>
-      <c r="AE12" s="207"/>
-      <c r="AF12" s="208" t="str">
+      <c r="AD12" s="209"/>
+      <c r="AE12" s="210"/>
+      <c r="AF12" s="196" t="str">
         <f>Consuntivo_2_PA!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="209"/>
-      <c r="AH12" s="210"/>
-      <c r="AI12" s="208" t="str">
+      <c r="AG12" s="197"/>
+      <c r="AH12" s="198"/>
+      <c r="AI12" s="196" t="str">
         <f>Consuntivo_2_PA!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="209"/>
-      <c r="AK12" s="211"/>
-      <c r="AL12" s="204" t="str">
+      <c r="AJ12" s="197"/>
+      <c r="AK12" s="199"/>
+      <c r="AL12" s="200" t="str">
         <f>Consuntivo_2_PA!AE9</f>
         <v>Totale</v>
       </c>
@@ -5512,7 +5709,7 @@
         <f>Consuntivo_2_PA!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="205"/>
+      <c r="AL13" s="201"/>
       <c r="AM13" s="5">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -5567,7 +5764,7 @@
         <f>Consuntivo_2_PA!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="212">
+      <c r="AL14" s="202">
         <f>Consuntivo_2_PA!AE11</f>
         <v>26</v>
       </c>
@@ -5697,7 +5894,7 @@
         <f>Consuntivo_2_PA!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="200"/>
+      <c r="AL15" s="194"/>
       <c r="AO15" s="5">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -5816,7 +6013,7 @@
         <f>Consuntivo_2_PA!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="200">
+      <c r="AL16" s="194">
         <f>Consuntivo_2_PA!AE13</f>
         <v>27</v>
       </c>
@@ -5938,7 +6135,7 @@
         <f>Consuntivo_2_PA!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="200"/>
+      <c r="AL17" s="194"/>
       <c r="AO17" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6057,7 +6254,7 @@
         <f>Consuntivo_2_PA!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="200">
+      <c r="AL18" s="194">
         <f>Consuntivo_2_PA!AE15</f>
         <v>26</v>
       </c>
@@ -6179,7 +6376,7 @@
         <f>Consuntivo_2_PA!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="200"/>
+      <c r="AL19" s="194"/>
       <c r="AO19" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6298,7 +6495,7 @@
         <f>Consuntivo_2_PA!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="200">
+      <c r="AL20" s="194">
         <f>Consuntivo_2_PA!AE17</f>
         <v>28</v>
       </c>
@@ -6420,7 +6617,7 @@
         <f>Consuntivo_2_PA!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="200"/>
+      <c r="AL21" s="194"/>
       <c r="AO21" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6539,7 +6736,7 @@
         <f>Consuntivo_2_PA!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="200">
+      <c r="AL22" s="194">
         <f>Consuntivo_2_PA!AE19</f>
         <v>30</v>
       </c>
@@ -6624,36 +6821,36 @@
       <c r="A23" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="213" t="s">
+      <c r="B23" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="213"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="213" t="s">
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213" t="s">
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="213"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="213" t="s">
+      <c r="I23" s="211"/>
+      <c r="J23" s="211"/>
+      <c r="K23" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="213"/>
-      <c r="M23" s="213"/>
-      <c r="N23" s="213" t="s">
+      <c r="L23" s="211"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="213"/>
-      <c r="P23" s="213"/>
-      <c r="Q23" s="213" t="s">
+      <c r="O23" s="211"/>
+      <c r="P23" s="211"/>
+      <c r="Q23" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="213"/>
-      <c r="S23" s="213"/>
+      <c r="R23" s="211"/>
+      <c r="S23" s="211"/>
       <c r="T23" s="150" t="s">
         <v>14</v>
       </c>
@@ -6698,7 +6895,7 @@
         <f>Consuntivo_2_PA!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="200"/>
+      <c r="AL23" s="194"/>
       <c r="AO23" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6777,50 +6974,50 @@
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A24" s="199" t="s">
+      <c r="A24" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="197">
+      <c r="B24" s="205">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="197"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197">
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="198">
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="204">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>15</v>
       </c>
-      <c r="I24" s="198"/>
-      <c r="J24" s="198"/>
-      <c r="K24" s="197">
+      <c r="I24" s="204"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="205">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="197"/>
-      <c r="M24" s="197"/>
-      <c r="N24" s="198">
+      <c r="L24" s="205"/>
+      <c r="M24" s="205"/>
+      <c r="N24" s="204">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="198"/>
-      <c r="P24" s="198"/>
-      <c r="Q24" s="197">
+      <c r="O24" s="204"/>
+      <c r="P24" s="204"/>
+      <c r="Q24" s="205">
         <f t="shared" ref="Q24" si="38">SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="197"/>
-      <c r="S24" s="197"/>
-      <c r="T24" s="195">
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="214">
         <f t="shared" ref="T24" si="39">SUM(B24:S25)</f>
         <v>115</v>
       </c>
-      <c r="U24" s="194"/>
+      <c r="U24" s="213"/>
       <c r="AB24" s="44" t="str">
         <f>Consuntivo_2_PA!U21</f>
         <v>Quadrio Giacomo</v>
@@ -6861,7 +7058,7 @@
         <f>Consuntivo_2_PA!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="200">
+      <c r="AL24" s="194">
         <f>Consuntivo_2_PA!AE21</f>
         <v>28</v>
       </c>
@@ -6943,27 +7140,27 @@
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A25" s="199"/>
-      <c r="B25" s="197"/>
-      <c r="C25" s="197"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="197"/>
-      <c r="H25" s="198"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="197"/>
-      <c r="L25" s="197"/>
-      <c r="M25" s="197"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="198"/>
-      <c r="P25" s="198"/>
-      <c r="Q25" s="197"/>
-      <c r="R25" s="197"/>
-      <c r="S25" s="197"/>
-      <c r="T25" s="195"/>
-      <c r="U25" s="194"/>
+      <c r="A25" s="203"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="205"/>
+      <c r="M25" s="205"/>
+      <c r="N25" s="204"/>
+      <c r="O25" s="204"/>
+      <c r="P25" s="204"/>
+      <c r="Q25" s="205"/>
+      <c r="R25" s="205"/>
+      <c r="S25" s="205"/>
+      <c r="T25" s="214"/>
+      <c r="U25" s="213"/>
       <c r="AB25" s="44">
         <f>Consuntivo_2_PA!U22</f>
         <v>0</v>
@@ -7004,7 +7201,7 @@
         <f>Consuntivo_2_PA!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="200"/>
+      <c r="AL25" s="194"/>
       <c r="AO25" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -7083,50 +7280,50 @@
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A26" s="199" t="s">
+      <c r="A26" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="197">
+      <c r="B26" s="205">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="197"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197">
+      <c r="C26" s="205"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="205">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="197">
+      <c r="F26" s="205"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="205">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>11</v>
       </c>
-      <c r="I26" s="197"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="198">
+      <c r="I26" s="205"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="204">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>41</v>
       </c>
-      <c r="L26" s="198"/>
-      <c r="M26" s="198"/>
-      <c r="N26" s="197">
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="205">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="197"/>
-      <c r="P26" s="197"/>
-      <c r="Q26" s="197">
+      <c r="O26" s="205"/>
+      <c r="P26" s="205"/>
+      <c r="Q26" s="205">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="197"/>
-      <c r="S26" s="197"/>
-      <c r="T26" s="195">
+      <c r="R26" s="205"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="214">
         <f t="shared" ref="T26" si="40">SUM(B26:S27)</f>
         <v>116</v>
       </c>
-      <c r="U26" s="194"/>
+      <c r="U26" s="213"/>
       <c r="AB26" s="53" t="str">
         <f>Consuntivo_2_PA!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -7167,7 +7364,7 @@
         <f>Consuntivo_2_PA!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="200">
+      <c r="AL26" s="194">
         <f>Consuntivo_2_PA!AE23</f>
         <v>28</v>
       </c>
@@ -7249,27 +7446,27 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="199"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="197"/>
-      <c r="G27" s="197"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="198"/>
-      <c r="L27" s="198"/>
-      <c r="M27" s="198"/>
-      <c r="N27" s="197"/>
-      <c r="O27" s="197"/>
-      <c r="P27" s="197"/>
-      <c r="Q27" s="197"/>
-      <c r="R27" s="197"/>
-      <c r="S27" s="197"/>
-      <c r="T27" s="195"/>
-      <c r="U27" s="194"/>
+      <c r="A27" s="203"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="204"/>
+      <c r="L27" s="204"/>
+      <c r="M27" s="204"/>
+      <c r="N27" s="205"/>
+      <c r="O27" s="205"/>
+      <c r="P27" s="205"/>
+      <c r="Q27" s="205"/>
+      <c r="R27" s="205"/>
+      <c r="S27" s="205"/>
+      <c r="T27" s="214"/>
+      <c r="U27" s="213"/>
       <c r="AB27" s="75">
         <f>Consuntivo_2_PA!U24</f>
         <v>0</v>
@@ -7310,7 +7507,7 @@
         <f>Consuntivo_2_PA!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="214"/>
+      <c r="AL27" s="195"/>
       <c r="AO27" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -7389,96 +7586,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="199" t="s">
+      <c r="A28" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="197">
+      <c r="B28" s="205">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="197"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197">
+      <c r="C28" s="205"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>14</v>
       </c>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="197">
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="205">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>13</v>
       </c>
-      <c r="I28" s="197"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="197">
+      <c r="I28" s="205"/>
+      <c r="J28" s="205"/>
+      <c r="K28" s="205">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="197"/>
-      <c r="M28" s="197"/>
-      <c r="N28" s="197">
+      <c r="L28" s="205"/>
+      <c r="M28" s="205"/>
+      <c r="N28" s="205">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="197"/>
-      <c r="P28" s="197"/>
-      <c r="Q28" s="198">
+      <c r="O28" s="205"/>
+      <c r="P28" s="205"/>
+      <c r="Q28" s="204">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="198"/>
-      <c r="S28" s="198"/>
-      <c r="T28" s="195">
+      <c r="R28" s="204"/>
+      <c r="S28" s="204"/>
+      <c r="T28" s="214">
         <f t="shared" ref="T28" si="41">SUM(B28:S29)</f>
         <v>117</v>
       </c>
-      <c r="U28" s="194"/>
+      <c r="U28" s="213"/>
       <c r="BG28" s="144">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A29" s="199"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="197"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="197"/>
-      <c r="F29" s="197"/>
-      <c r="G29" s="197"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="197"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="197"/>
-      <c r="N29" s="197"/>
-      <c r="O29" s="197"/>
-      <c r="P29" s="197"/>
-      <c r="Q29" s="198"/>
-      <c r="R29" s="198"/>
-      <c r="S29" s="198"/>
-      <c r="T29" s="195"/>
-      <c r="U29" s="194"/>
+      <c r="A29" s="203"/>
+      <c r="B29" s="205"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="205"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="205"/>
+      <c r="J29" s="205"/>
+      <c r="K29" s="205"/>
+      <c r="L29" s="205"/>
+      <c r="M29" s="205"/>
+      <c r="N29" s="205"/>
+      <c r="O29" s="205"/>
+      <c r="P29" s="205"/>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="204"/>
+      <c r="T29" s="214"/>
+      <c r="U29" s="213"/>
       <c r="AA29" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="208" t="str">
+      <c r="AC29" s="196" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="209"/>
-      <c r="AE29" s="210"/>
-      <c r="AF29" s="208" t="str">
+      <c r="AD29" s="197"/>
+      <c r="AE29" s="198"/>
+      <c r="AF29" s="196" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="209"/>
-      <c r="AH29" s="211"/>
-      <c r="AI29" s="204" t="str">
+      <c r="AG29" s="197"/>
+      <c r="AH29" s="199"/>
+      <c r="AI29" s="200" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -7488,50 +7685,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="197">
+      <c r="B30" s="205">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="197"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="197">
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="197"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="197">
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>11</v>
       </c>
-      <c r="I30" s="197"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="198">
+      <c r="I30" s="205"/>
+      <c r="J30" s="205"/>
+      <c r="K30" s="204">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>39</v>
       </c>
-      <c r="L30" s="198"/>
-      <c r="M30" s="198"/>
-      <c r="N30" s="198">
+      <c r="L30" s="204"/>
+      <c r="M30" s="204"/>
+      <c r="N30" s="204">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="198"/>
-      <c r="P30" s="198"/>
-      <c r="Q30" s="197">
+      <c r="O30" s="204"/>
+      <c r="P30" s="204"/>
+      <c r="Q30" s="205">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="197"/>
-      <c r="S30" s="197"/>
-      <c r="T30" s="195">
+      <c r="R30" s="205"/>
+      <c r="S30" s="205"/>
+      <c r="T30" s="214">
         <f t="shared" ref="T30" si="42">SUM(B30:S31)</f>
         <v>122</v>
       </c>
-      <c r="U30" s="194"/>
+      <c r="U30" s="213"/>
       <c r="AB30" s="141"/>
       <c r="AC30" s="40" t="str">
         <f>'3_PDC'!U7</f>
@@ -7557,7 +7754,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="205"/>
+      <c r="AI30" s="201"/>
       <c r="AK30" s="5">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -7568,27 +7765,27 @@
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A31" s="199"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="197"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="197"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="198"/>
-      <c r="M31" s="198"/>
-      <c r="N31" s="198"/>
-      <c r="O31" s="198"/>
-      <c r="P31" s="198"/>
-      <c r="Q31" s="197"/>
-      <c r="R31" s="197"/>
-      <c r="S31" s="197"/>
-      <c r="T31" s="195"/>
-      <c r="U31" s="194"/>
+      <c r="A31" s="203"/>
+      <c r="B31" s="205"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="205"/>
+      <c r="J31" s="205"/>
+      <c r="K31" s="204"/>
+      <c r="L31" s="204"/>
+      <c r="M31" s="204"/>
+      <c r="N31" s="204"/>
+      <c r="O31" s="204"/>
+      <c r="P31" s="204"/>
+      <c r="Q31" s="205"/>
+      <c r="R31" s="205"/>
+      <c r="S31" s="205"/>
+      <c r="T31" s="214"/>
+      <c r="U31" s="213"/>
       <c r="AB31" s="44" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -7617,7 +7814,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="212">
+      <c r="AI31" s="202">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -7703,50 +7900,50 @@
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A32" s="199" t="s">
+      <c r="A32" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="197">
+      <c r="B32" s="205">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="197"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197">
+      <c r="C32" s="205"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="197"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="197">
+      <c r="F32" s="205"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>12</v>
       </c>
-      <c r="I32" s="197"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="197">
+      <c r="I32" s="205"/>
+      <c r="J32" s="205"/>
+      <c r="K32" s="205">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>30</v>
       </c>
-      <c r="L32" s="197"/>
-      <c r="M32" s="197"/>
-      <c r="N32" s="198">
+      <c r="L32" s="205"/>
+      <c r="M32" s="205"/>
+      <c r="N32" s="204">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="198"/>
-      <c r="P32" s="198"/>
-      <c r="Q32" s="197">
+      <c r="O32" s="204"/>
+      <c r="P32" s="204"/>
+      <c r="Q32" s="205">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="197"/>
-      <c r="S32" s="197"/>
-      <c r="T32" s="195">
+      <c r="R32" s="205"/>
+      <c r="S32" s="205"/>
+      <c r="T32" s="214">
         <f t="shared" ref="T32" si="58">SUM(B32:S33)</f>
         <v>122</v>
       </c>
-      <c r="U32" s="194"/>
+      <c r="U32" s="213"/>
       <c r="AB32" s="49">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -7775,7 +7972,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="200"/>
+      <c r="AI32" s="194"/>
       <c r="AO32" s="5">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -7854,27 +8051,27 @@
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A33" s="199"/>
-      <c r="B33" s="197"/>
-      <c r="C33" s="197"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="197"/>
-      <c r="N33" s="198"/>
-      <c r="O33" s="198"/>
-      <c r="P33" s="198"/>
-      <c r="Q33" s="197"/>
-      <c r="R33" s="197"/>
-      <c r="S33" s="197"/>
-      <c r="T33" s="195"/>
-      <c r="U33" s="194"/>
+      <c r="A33" s="203"/>
+      <c r="B33" s="205"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="205"/>
+      <c r="I33" s="205"/>
+      <c r="J33" s="205"/>
+      <c r="K33" s="205"/>
+      <c r="L33" s="205"/>
+      <c r="M33" s="205"/>
+      <c r="N33" s="204"/>
+      <c r="O33" s="204"/>
+      <c r="P33" s="204"/>
+      <c r="Q33" s="205"/>
+      <c r="R33" s="205"/>
+      <c r="S33" s="205"/>
+      <c r="T33" s="214"/>
+      <c r="U33" s="213"/>
       <c r="AB33" s="44" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -7903,7 +8100,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="200">
+      <c r="AI33" s="194">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -7985,50 +8182,50 @@
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A34" s="199" t="s">
+      <c r="A34" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="197">
+      <c r="B34" s="205">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="197"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="197">
+      <c r="C34" s="205"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="197"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="197">
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>10</v>
       </c>
-      <c r="I34" s="197"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="198">
+      <c r="I34" s="205"/>
+      <c r="J34" s="205"/>
+      <c r="K34" s="204">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>37</v>
       </c>
-      <c r="L34" s="198"/>
-      <c r="M34" s="198"/>
-      <c r="N34" s="198">
+      <c r="L34" s="204"/>
+      <c r="M34" s="204"/>
+      <c r="N34" s="204">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="198"/>
-      <c r="P34" s="198"/>
-      <c r="Q34" s="198">
+      <c r="O34" s="204"/>
+      <c r="P34" s="204"/>
+      <c r="Q34" s="204">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="198"/>
-      <c r="S34" s="198"/>
-      <c r="T34" s="195">
+      <c r="R34" s="204"/>
+      <c r="S34" s="204"/>
+      <c r="T34" s="214">
         <f t="shared" ref="T34" si="62">SUM(B34:S35)</f>
         <v>120</v>
       </c>
-      <c r="U34" s="194"/>
+      <c r="U34" s="213"/>
       <c r="AB34" s="44">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -8057,7 +8254,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="200"/>
+      <c r="AI34" s="194"/>
       <c r="AO34" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8136,27 +8333,27 @@
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A35" s="199"/>
-      <c r="B35" s="197"/>
-      <c r="C35" s="197"/>
-      <c r="D35" s="197"/>
-      <c r="E35" s="197"/>
-      <c r="F35" s="197"/>
-      <c r="G35" s="197"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="198"/>
-      <c r="L35" s="198"/>
-      <c r="M35" s="198"/>
-      <c r="N35" s="198"/>
-      <c r="O35" s="198"/>
-      <c r="P35" s="198"/>
-      <c r="Q35" s="198"/>
-      <c r="R35" s="198"/>
-      <c r="S35" s="198"/>
-      <c r="T35" s="195"/>
-      <c r="U35" s="194"/>
+      <c r="A35" s="203"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="205"/>
+      <c r="K35" s="204"/>
+      <c r="L35" s="204"/>
+      <c r="M35" s="204"/>
+      <c r="N35" s="204"/>
+      <c r="O35" s="204"/>
+      <c r="P35" s="204"/>
+      <c r="Q35" s="204"/>
+      <c r="R35" s="204"/>
+      <c r="S35" s="204"/>
+      <c r="T35" s="214"/>
+      <c r="U35" s="213"/>
       <c r="AB35" s="53" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -8185,7 +8382,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="200">
+      <c r="AI35" s="194">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -8267,50 +8464,50 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A36" s="199" t="s">
+      <c r="A36" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="197">
+      <c r="B36" s="205">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>12</v>
       </c>
-      <c r="C36" s="197"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197">
+      <c r="C36" s="205"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="205">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="197"/>
-      <c r="G36" s="197"/>
-      <c r="H36" s="197">
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="205">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="197"/>
-      <c r="J36" s="197"/>
-      <c r="K36" s="198">
+      <c r="I36" s="205"/>
+      <c r="J36" s="205"/>
+      <c r="K36" s="204">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="198"/>
-      <c r="M36" s="198"/>
-      <c r="N36" s="197">
+      <c r="L36" s="204"/>
+      <c r="M36" s="204"/>
+      <c r="N36" s="205">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="197"/>
-      <c r="P36" s="197"/>
-      <c r="Q36" s="197">
+      <c r="O36" s="205"/>
+      <c r="P36" s="205"/>
+      <c r="Q36" s="205">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="197"/>
-      <c r="S36" s="197"/>
-      <c r="T36" s="195">
+      <c r="R36" s="205"/>
+      <c r="S36" s="205"/>
+      <c r="T36" s="214">
         <f t="shared" ref="T36" si="63">SUM(B36:S37)</f>
         <v>116</v>
       </c>
-      <c r="U36" s="194"/>
+      <c r="U36" s="213"/>
       <c r="AB36" s="49">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -8339,7 +8536,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="200"/>
+      <c r="AI36" s="194"/>
       <c r="AO36" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8418,27 +8615,27 @@
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A37" s="199"/>
-      <c r="B37" s="197"/>
-      <c r="C37" s="197"/>
-      <c r="D37" s="197"/>
-      <c r="E37" s="197"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="197"/>
-      <c r="J37" s="197"/>
-      <c r="K37" s="198"/>
-      <c r="L37" s="198"/>
-      <c r="M37" s="198"/>
-      <c r="N37" s="197"/>
-      <c r="O37" s="197"/>
-      <c r="P37" s="197"/>
-      <c r="Q37" s="197"/>
-      <c r="R37" s="197"/>
-      <c r="S37" s="197"/>
-      <c r="T37" s="195"/>
-      <c r="U37" s="194"/>
+      <c r="A37" s="203"/>
+      <c r="B37" s="205"/>
+      <c r="C37" s="205"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="204"/>
+      <c r="L37" s="204"/>
+      <c r="M37" s="204"/>
+      <c r="N37" s="205"/>
+      <c r="O37" s="205"/>
+      <c r="P37" s="205"/>
+      <c r="Q37" s="205"/>
+      <c r="R37" s="205"/>
+      <c r="S37" s="205"/>
+      <c r="T37" s="214"/>
+      <c r="U37" s="213"/>
       <c r="AB37" s="44" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -8467,7 +8664,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="200">
+      <c r="AI37" s="194">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -8549,50 +8746,50 @@
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A38" s="196" t="s">
+      <c r="A38" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="197">
+      <c r="B38" s="205">
         <f>SUM(B24:D37)</f>
         <v>82</v>
       </c>
-      <c r="C38" s="197"/>
-      <c r="D38" s="197"/>
-      <c r="E38" s="197">
+      <c r="C38" s="205"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="205">
         <f t="shared" ref="E38" si="64">SUM(E24:G37)</f>
         <v>69</v>
       </c>
-      <c r="F38" s="197"/>
-      <c r="G38" s="197"/>
-      <c r="H38" s="197">
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205">
         <f>SUM(H24:J37)</f>
         <v>79</v>
       </c>
-      <c r="I38" s="197"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="197">
+      <c r="I38" s="205"/>
+      <c r="J38" s="205"/>
+      <c r="K38" s="205">
         <f t="shared" ref="K38" si="65">SUM(K24:M37)</f>
         <v>235</v>
       </c>
-      <c r="L38" s="197"/>
-      <c r="M38" s="197"/>
-      <c r="N38" s="197">
+      <c r="L38" s="205"/>
+      <c r="M38" s="205"/>
+      <c r="N38" s="205">
         <f t="shared" ref="N38" si="66">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="197"/>
-      <c r="P38" s="197"/>
-      <c r="Q38" s="197">
+      <c r="O38" s="205"/>
+      <c r="P38" s="205"/>
+      <c r="Q38" s="205">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="197"/>
-      <c r="S38" s="197"/>
-      <c r="T38" s="195">
+      <c r="R38" s="205"/>
+      <c r="S38" s="205"/>
+      <c r="T38" s="214">
         <f>SUM(B38:S39)</f>
         <v>828</v>
       </c>
-      <c r="U38" s="194"/>
+      <c r="U38" s="213"/>
       <c r="AB38" s="44">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -8621,7 +8818,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="200"/>
+      <c r="AI38" s="194"/>
       <c r="AO38" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8700,27 +8897,27 @@
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A39" s="196"/>
-      <c r="B39" s="197"/>
-      <c r="C39" s="197"/>
-      <c r="D39" s="197"/>
-      <c r="E39" s="197"/>
-      <c r="F39" s="197"/>
-      <c r="G39" s="197"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="197"/>
-      <c r="L39" s="197"/>
-      <c r="M39" s="197"/>
-      <c r="N39" s="197"/>
-      <c r="O39" s="197"/>
-      <c r="P39" s="197"/>
-      <c r="Q39" s="197"/>
-      <c r="R39" s="197"/>
-      <c r="S39" s="197"/>
-      <c r="T39" s="195"/>
-      <c r="U39" s="194"/>
+      <c r="A39" s="212"/>
+      <c r="B39" s="205"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="205"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="205"/>
+      <c r="M39" s="205"/>
+      <c r="N39" s="205"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="205"/>
+      <c r="Q39" s="205"/>
+      <c r="R39" s="205"/>
+      <c r="S39" s="205"/>
+      <c r="T39" s="214"/>
+      <c r="U39" s="213"/>
       <c r="AB39" s="53" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -8749,7 +8946,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="200">
+      <c r="AI39" s="194">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -8860,7 +9057,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="200"/>
+      <c r="AI40" s="194"/>
       <c r="AO40" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8968,7 +9165,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="200">
+      <c r="AI41" s="194">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -9079,7 +9276,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="200"/>
+      <c r="AI42" s="194"/>
       <c r="AO42" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -9187,7 +9384,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="200">
+      <c r="AI43" s="194">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -9298,7 +9495,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="214"/>
+      <c r="AI44" s="195"/>
       <c r="AO44" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -9391,19 +9588,19 @@
       <c r="AB46" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="208" t="str">
+      <c r="AC46" s="196" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="209"/>
-      <c r="AE46" s="210"/>
-      <c r="AF46" s="208" t="str">
+      <c r="AD46" s="197"/>
+      <c r="AE46" s="198"/>
+      <c r="AF46" s="196" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="209"/>
-      <c r="AH46" s="211"/>
-      <c r="AI46" s="204" t="str">
+      <c r="AG46" s="197"/>
+      <c r="AH46" s="199"/>
+      <c r="AI46" s="200" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -9443,7 +9640,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="205"/>
+      <c r="AI47" s="201"/>
       <c r="BG47" s="144">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -9479,7 +9676,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="212">
+      <c r="AI48" s="202">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -9593,7 +9790,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="200"/>
+      <c r="AI49" s="194"/>
       <c r="AO49" s="5">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -9700,7 +9897,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="200">
+      <c r="AI50" s="194">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -9822,7 +10019,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="200"/>
+      <c r="AI51" s="194"/>
       <c r="AO51" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9943,7 +10140,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="200">
+      <c r="AI52" s="194">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -10067,7 +10264,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="200"/>
+      <c r="AI53" s="194"/>
       <c r="AO53" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10188,7 +10385,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="200">
+      <c r="AI54" s="194">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -10312,7 +10509,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="200"/>
+      <c r="AI55" s="194"/>
       <c r="AO55" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10433,7 +10630,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="200">
+      <c r="AI56" s="194">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -10557,7 +10754,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="200"/>
+      <c r="AI57" s="194"/>
       <c r="AO57" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10675,7 +10872,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="200">
+      <c r="AI58" s="194">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -10785,7 +10982,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="200"/>
+      <c r="AI59" s="194"/>
       <c r="AO59" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10892,7 +11089,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="200">
+      <c r="AI60" s="194">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -11002,7 +11199,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="214"/>
+      <c r="AI61" s="195"/>
       <c r="AO61" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -11082,78 +11279,22 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T36:T37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -11178,43 +11319,99 @@
     <mergeCell ref="N36:P37"/>
     <mergeCell ref="Q36:S37"/>
     <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29:AI44">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>27.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46:AI61">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:T39">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11307,13 +11504,13 @@
         <v>74</v>
       </c>
       <c r="AB2" s="140"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="202"/>
-      <c r="AI2" s="204"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="208"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="200"/>
       <c r="AJ2" s="5">
         <f>SUM(AI4:AI10)</f>
         <v>0</v>
@@ -11403,7 +11600,7 @@
       <c r="AF3" s="87"/>
       <c r="AG3" s="88"/>
       <c r="AH3" s="142"/>
-      <c r="AI3" s="205"/>
+      <c r="AI3" s="201"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="139"/>
@@ -12016,25 +12213,25 @@
       <c r="AB12" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="201" t="str">
+      <c r="AC12" s="206" t="str">
         <f>Consuntivo_2_PA!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="206"/>
-      <c r="AE12" s="207"/>
-      <c r="AF12" s="208" t="str">
+      <c r="AD12" s="209"/>
+      <c r="AE12" s="210"/>
+      <c r="AF12" s="196" t="str">
         <f>Consuntivo_2_PA!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="209"/>
-      <c r="AH12" s="210"/>
-      <c r="AI12" s="208" t="str">
+      <c r="AG12" s="197"/>
+      <c r="AH12" s="198"/>
+      <c r="AI12" s="196" t="str">
         <f>Consuntivo_2_PA!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="209"/>
-      <c r="AK12" s="211"/>
-      <c r="AL12" s="204" t="str">
+      <c r="AJ12" s="197"/>
+      <c r="AK12" s="199"/>
+      <c r="AL12" s="200" t="str">
         <f>Consuntivo_2_PA!AE9</f>
         <v>Totale</v>
       </c>
@@ -12081,7 +12278,7 @@
         <f>Consuntivo_2_PA!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="205"/>
+      <c r="AL13" s="201"/>
       <c r="AM13" s="5">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -12132,7 +12329,7 @@
         <f>Consuntivo_2_PA!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="212">
+      <c r="AL14" s="202">
         <f>Consuntivo_2_PA!AE11</f>
         <v>26</v>
       </c>
@@ -12258,7 +12455,7 @@
         <f>Consuntivo_2_PA!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="200"/>
+      <c r="AL15" s="194"/>
       <c r="AO15" s="5">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -12377,7 +12574,7 @@
         <f>Consuntivo_2_PA!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="200">
+      <c r="AL16" s="194">
         <f>Consuntivo_2_PA!AE13</f>
         <v>27</v>
       </c>
@@ -12499,7 +12696,7 @@
         <f>Consuntivo_2_PA!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="200"/>
+      <c r="AL17" s="194"/>
       <c r="AO17" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12618,7 +12815,7 @@
         <f>Consuntivo_2_PA!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="200">
+      <c r="AL18" s="194">
         <f>Consuntivo_2_PA!AE15</f>
         <v>26</v>
       </c>
@@ -12740,7 +12937,7 @@
         <f>Consuntivo_2_PA!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="200"/>
+      <c r="AL19" s="194"/>
       <c r="AO19" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12859,7 +13056,7 @@
         <f>Consuntivo_2_PA!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="200">
+      <c r="AL20" s="194">
         <f>Consuntivo_2_PA!AE17</f>
         <v>28</v>
       </c>
@@ -12981,7 +13178,7 @@
         <f>Consuntivo_2_PA!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="200"/>
+      <c r="AL21" s="194"/>
       <c r="AO21" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13100,7 +13297,7 @@
         <f>Consuntivo_2_PA!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="200">
+      <c r="AL22" s="194">
         <f>Consuntivo_2_PA!AE19</f>
         <v>30</v>
       </c>
@@ -13185,36 +13382,36 @@
       <c r="A23" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="213" t="s">
+      <c r="B23" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="213"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="213" t="s">
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213" t="s">
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="213"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="213" t="s">
+      <c r="I23" s="211"/>
+      <c r="J23" s="211"/>
+      <c r="K23" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="213"/>
-      <c r="M23" s="213"/>
-      <c r="N23" s="213" t="s">
+      <c r="L23" s="211"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="213"/>
-      <c r="P23" s="213"/>
-      <c r="Q23" s="213" t="s">
+      <c r="O23" s="211"/>
+      <c r="P23" s="211"/>
+      <c r="Q23" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="213"/>
-      <c r="S23" s="213"/>
+      <c r="R23" s="211"/>
+      <c r="S23" s="211"/>
       <c r="T23" s="149" t="s">
         <v>14</v>
       </c>
@@ -13259,7 +13456,7 @@
         <f>Consuntivo_2_PA!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="200"/>
+      <c r="AL23" s="194"/>
       <c r="AO23" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13338,50 +13535,50 @@
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A24" s="199" t="s">
+      <c r="A24" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="197">
+      <c r="B24" s="205">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="197"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197">
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="198">
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="204">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>9</v>
       </c>
-      <c r="I24" s="198"/>
-      <c r="J24" s="198"/>
-      <c r="K24" s="197">
+      <c r="I24" s="204"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="205">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="197"/>
-      <c r="M24" s="197"/>
-      <c r="N24" s="198">
+      <c r="L24" s="205"/>
+      <c r="M24" s="205"/>
+      <c r="N24" s="204">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="198"/>
-      <c r="P24" s="198"/>
-      <c r="Q24" s="197">
+      <c r="O24" s="204"/>
+      <c r="P24" s="204"/>
+      <c r="Q24" s="205">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="197"/>
-      <c r="S24" s="197"/>
-      <c r="T24" s="197">
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="205">
         <f t="shared" ref="T24" si="32">SUM(B24:S25)</f>
         <v>96</v>
       </c>
-      <c r="U24" s="194"/>
+      <c r="U24" s="213"/>
       <c r="AB24" s="44" t="str">
         <f>Consuntivo_2_PA!U21</f>
         <v>Quadrio Giacomo</v>
@@ -13422,7 +13619,7 @@
         <f>Consuntivo_2_PA!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="200">
+      <c r="AL24" s="194">
         <f>Consuntivo_2_PA!AE21</f>
         <v>28</v>
       </c>
@@ -13504,27 +13701,27 @@
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A25" s="199"/>
-      <c r="B25" s="197"/>
-      <c r="C25" s="197"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="197"/>
-      <c r="H25" s="198"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="197"/>
-      <c r="L25" s="197"/>
-      <c r="M25" s="197"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="198"/>
-      <c r="P25" s="198"/>
-      <c r="Q25" s="197"/>
-      <c r="R25" s="197"/>
-      <c r="S25" s="197"/>
-      <c r="T25" s="197"/>
-      <c r="U25" s="194"/>
+      <c r="A25" s="203"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="205"/>
+      <c r="M25" s="205"/>
+      <c r="N25" s="204"/>
+      <c r="O25" s="204"/>
+      <c r="P25" s="204"/>
+      <c r="Q25" s="205"/>
+      <c r="R25" s="205"/>
+      <c r="S25" s="205"/>
+      <c r="T25" s="205"/>
+      <c r="U25" s="213"/>
       <c r="AB25" s="44">
         <f>Consuntivo_2_PA!U22</f>
         <v>0</v>
@@ -13565,7 +13762,7 @@
         <f>Consuntivo_2_PA!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="200"/>
+      <c r="AL25" s="194"/>
       <c r="AO25" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13644,50 +13841,50 @@
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A26" s="199" t="s">
+      <c r="A26" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="197">
+      <c r="B26" s="205">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="197"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197">
+      <c r="C26" s="205"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="205">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="197">
+      <c r="F26" s="205"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="205">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="197"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="198">
+      <c r="I26" s="205"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="204">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>33</v>
       </c>
-      <c r="L26" s="198"/>
-      <c r="M26" s="198"/>
-      <c r="N26" s="197">
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="205">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="197"/>
-      <c r="P26" s="197"/>
-      <c r="Q26" s="197">
+      <c r="O26" s="205"/>
+      <c r="P26" s="205"/>
+      <c r="Q26" s="205">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="197"/>
-      <c r="S26" s="197"/>
-      <c r="T26" s="197">
+      <c r="R26" s="205"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="205">
         <f t="shared" ref="T26" si="33">SUM(B26:S27)</f>
         <v>97</v>
       </c>
-      <c r="U26" s="194"/>
+      <c r="U26" s="213"/>
       <c r="AB26" s="53" t="str">
         <f>Consuntivo_2_PA!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -13728,7 +13925,7 @@
         <f>Consuntivo_2_PA!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="200">
+      <c r="AL26" s="194">
         <f>Consuntivo_2_PA!AE23</f>
         <v>28</v>
       </c>
@@ -13810,27 +14007,27 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="199"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="197"/>
-      <c r="G27" s="197"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="198"/>
-      <c r="L27" s="198"/>
-      <c r="M27" s="198"/>
-      <c r="N27" s="197"/>
-      <c r="O27" s="197"/>
-      <c r="P27" s="197"/>
-      <c r="Q27" s="197"/>
-      <c r="R27" s="197"/>
-      <c r="S27" s="197"/>
-      <c r="T27" s="197"/>
-      <c r="U27" s="194"/>
+      <c r="A27" s="203"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="204"/>
+      <c r="L27" s="204"/>
+      <c r="M27" s="204"/>
+      <c r="N27" s="205"/>
+      <c r="O27" s="205"/>
+      <c r="P27" s="205"/>
+      <c r="Q27" s="205"/>
+      <c r="R27" s="205"/>
+      <c r="S27" s="205"/>
+      <c r="T27" s="205"/>
+      <c r="U27" s="213"/>
       <c r="AB27" s="75">
         <f>Consuntivo_2_PA!U24</f>
         <v>0</v>
@@ -13871,7 +14068,7 @@
         <f>Consuntivo_2_PA!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="214"/>
+      <c r="AL27" s="195"/>
       <c r="AO27" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13950,96 +14147,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="199" t="s">
+      <c r="A28" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="197">
+      <c r="B28" s="205">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="197"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197">
+      <c r="C28" s="205"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="197">
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="205">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>2</v>
       </c>
-      <c r="I28" s="197"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="197">
+      <c r="I28" s="205"/>
+      <c r="J28" s="205"/>
+      <c r="K28" s="205">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="197"/>
-      <c r="M28" s="197"/>
-      <c r="N28" s="197">
+      <c r="L28" s="205"/>
+      <c r="M28" s="205"/>
+      <c r="N28" s="205">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="197"/>
-      <c r="P28" s="197"/>
-      <c r="Q28" s="198">
+      <c r="O28" s="205"/>
+      <c r="P28" s="205"/>
+      <c r="Q28" s="204">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="198"/>
-      <c r="S28" s="198"/>
-      <c r="T28" s="197">
+      <c r="R28" s="204"/>
+      <c r="S28" s="204"/>
+      <c r="T28" s="205">
         <f t="shared" ref="T28" si="34">SUM(B28:S29)</f>
         <v>96</v>
       </c>
-      <c r="U28" s="194"/>
+      <c r="U28" s="213"/>
       <c r="BG28" s="144">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A29" s="199"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="197"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="197"/>
-      <c r="F29" s="197"/>
-      <c r="G29" s="197"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="197"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="197"/>
-      <c r="N29" s="197"/>
-      <c r="O29" s="197"/>
-      <c r="P29" s="197"/>
-      <c r="Q29" s="198"/>
-      <c r="R29" s="198"/>
-      <c r="S29" s="198"/>
-      <c r="T29" s="197"/>
-      <c r="U29" s="194"/>
+      <c r="A29" s="203"/>
+      <c r="B29" s="205"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="205"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="205"/>
+      <c r="J29" s="205"/>
+      <c r="K29" s="205"/>
+      <c r="L29" s="205"/>
+      <c r="M29" s="205"/>
+      <c r="N29" s="205"/>
+      <c r="O29" s="205"/>
+      <c r="P29" s="205"/>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="204"/>
+      <c r="T29" s="205"/>
+      <c r="U29" s="213"/>
       <c r="AA29" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="208" t="str">
+      <c r="AC29" s="196" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="209"/>
-      <c r="AE29" s="210"/>
-      <c r="AF29" s="208" t="str">
+      <c r="AD29" s="197"/>
+      <c r="AE29" s="198"/>
+      <c r="AF29" s="196" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="209"/>
-      <c r="AH29" s="211"/>
-      <c r="AI29" s="204" t="str">
+      <c r="AG29" s="197"/>
+      <c r="AH29" s="199"/>
+      <c r="AI29" s="200" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -14049,50 +14246,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="197">
+      <c r="B30" s="205">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="197"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="197">
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="197"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="197">
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="197"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="198">
+      <c r="I30" s="205"/>
+      <c r="J30" s="205"/>
+      <c r="K30" s="204">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>31</v>
       </c>
-      <c r="L30" s="198"/>
-      <c r="M30" s="198"/>
-      <c r="N30" s="198">
+      <c r="L30" s="204"/>
+      <c r="M30" s="204"/>
+      <c r="N30" s="204">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="198"/>
-      <c r="P30" s="198"/>
-      <c r="Q30" s="197">
+      <c r="O30" s="204"/>
+      <c r="P30" s="204"/>
+      <c r="Q30" s="205">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="197"/>
-      <c r="S30" s="197"/>
-      <c r="T30" s="197">
+      <c r="R30" s="205"/>
+      <c r="S30" s="205"/>
+      <c r="T30" s="205">
         <f t="shared" ref="T30" si="35">SUM(B30:S31)</f>
         <v>103</v>
       </c>
-      <c r="U30" s="194"/>
+      <c r="U30" s="213"/>
       <c r="AB30" s="141"/>
       <c r="AC30" s="40" t="str">
         <f>'3_PDC'!U7</f>
@@ -14118,7 +14315,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="205"/>
+      <c r="AI30" s="201"/>
       <c r="AK30" s="5">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -14129,27 +14326,27 @@
       </c>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A31" s="199"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="197"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="197"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="198"/>
-      <c r="M31" s="198"/>
-      <c r="N31" s="198"/>
-      <c r="O31" s="198"/>
-      <c r="P31" s="198"/>
-      <c r="Q31" s="197"/>
-      <c r="R31" s="197"/>
-      <c r="S31" s="197"/>
-      <c r="T31" s="197"/>
-      <c r="U31" s="194"/>
+      <c r="A31" s="203"/>
+      <c r="B31" s="205"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="205"/>
+      <c r="J31" s="205"/>
+      <c r="K31" s="204"/>
+      <c r="L31" s="204"/>
+      <c r="M31" s="204"/>
+      <c r="N31" s="204"/>
+      <c r="O31" s="204"/>
+      <c r="P31" s="204"/>
+      <c r="Q31" s="205"/>
+      <c r="R31" s="205"/>
+      <c r="S31" s="205"/>
+      <c r="T31" s="205"/>
+      <c r="U31" s="213"/>
       <c r="AB31" s="44" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -14178,7 +14375,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="212">
+      <c r="AI31" s="202">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -14264,50 +14461,50 @@
       </c>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A32" s="199" t="s">
+      <c r="A32" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="197">
+      <c r="B32" s="205">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="197"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197">
+      <c r="C32" s="205"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="197"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="197">
+      <c r="F32" s="205"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>2</v>
       </c>
-      <c r="I32" s="197"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="197">
+      <c r="I32" s="205"/>
+      <c r="J32" s="205"/>
+      <c r="K32" s="205">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>20</v>
       </c>
-      <c r="L32" s="197"/>
-      <c r="M32" s="197"/>
-      <c r="N32" s="198">
+      <c r="L32" s="205"/>
+      <c r="M32" s="205"/>
+      <c r="N32" s="204">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="198"/>
-      <c r="P32" s="198"/>
-      <c r="Q32" s="197">
+      <c r="O32" s="204"/>
+      <c r="P32" s="204"/>
+      <c r="Q32" s="205">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="197"/>
-      <c r="S32" s="197"/>
-      <c r="T32" s="197">
+      <c r="R32" s="205"/>
+      <c r="S32" s="205"/>
+      <c r="T32" s="205">
         <f t="shared" ref="T32" si="51">SUM(B32:S33)</f>
         <v>102</v>
       </c>
-      <c r="U32" s="194"/>
+      <c r="U32" s="213"/>
       <c r="AB32" s="49">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -14336,7 +14533,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="200"/>
+      <c r="AI32" s="194"/>
       <c r="AO32" s="5">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -14415,27 +14612,27 @@
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A33" s="199"/>
-      <c r="B33" s="197"/>
-      <c r="C33" s="197"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="197"/>
-      <c r="N33" s="198"/>
-      <c r="O33" s="198"/>
-      <c r="P33" s="198"/>
-      <c r="Q33" s="197"/>
-      <c r="R33" s="197"/>
-      <c r="S33" s="197"/>
-      <c r="T33" s="197"/>
-      <c r="U33" s="194"/>
+      <c r="A33" s="203"/>
+      <c r="B33" s="205"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="205"/>
+      <c r="I33" s="205"/>
+      <c r="J33" s="205"/>
+      <c r="K33" s="205"/>
+      <c r="L33" s="205"/>
+      <c r="M33" s="205"/>
+      <c r="N33" s="204"/>
+      <c r="O33" s="204"/>
+      <c r="P33" s="204"/>
+      <c r="Q33" s="205"/>
+      <c r="R33" s="205"/>
+      <c r="S33" s="205"/>
+      <c r="T33" s="205"/>
+      <c r="U33" s="213"/>
       <c r="AB33" s="44" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -14464,7 +14661,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="200">
+      <c r="AI33" s="194">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -14546,50 +14743,50 @@
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A34" s="199" t="s">
+      <c r="A34" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="197">
+      <c r="B34" s="205">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="197"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="197">
+      <c r="C34" s="205"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="197"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="197">
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="197"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="198">
+      <c r="I34" s="205"/>
+      <c r="J34" s="205"/>
+      <c r="K34" s="204">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>27</v>
       </c>
-      <c r="L34" s="198"/>
-      <c r="M34" s="198"/>
-      <c r="N34" s="198">
+      <c r="L34" s="204"/>
+      <c r="M34" s="204"/>
+      <c r="N34" s="204">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="198"/>
-      <c r="P34" s="198"/>
-      <c r="Q34" s="198">
+      <c r="O34" s="204"/>
+      <c r="P34" s="204"/>
+      <c r="Q34" s="204">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="198"/>
-      <c r="S34" s="198"/>
-      <c r="T34" s="197">
+      <c r="R34" s="204"/>
+      <c r="S34" s="204"/>
+      <c r="T34" s="205">
         <f t="shared" ref="T34" si="55">SUM(B34:S35)</f>
         <v>100</v>
       </c>
-      <c r="U34" s="194"/>
+      <c r="U34" s="213"/>
       <c r="AB34" s="44">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -14618,7 +14815,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="200"/>
+      <c r="AI34" s="194"/>
       <c r="AO34" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14697,27 +14894,27 @@
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A35" s="199"/>
-      <c r="B35" s="197"/>
-      <c r="C35" s="197"/>
-      <c r="D35" s="197"/>
-      <c r="E35" s="197"/>
-      <c r="F35" s="197"/>
-      <c r="G35" s="197"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="198"/>
-      <c r="L35" s="198"/>
-      <c r="M35" s="198"/>
-      <c r="N35" s="198"/>
-      <c r="O35" s="198"/>
-      <c r="P35" s="198"/>
-      <c r="Q35" s="198"/>
-      <c r="R35" s="198"/>
-      <c r="S35" s="198"/>
-      <c r="T35" s="197"/>
-      <c r="U35" s="194"/>
+      <c r="A35" s="203"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="205"/>
+      <c r="K35" s="204"/>
+      <c r="L35" s="204"/>
+      <c r="M35" s="204"/>
+      <c r="N35" s="204"/>
+      <c r="O35" s="204"/>
+      <c r="P35" s="204"/>
+      <c r="Q35" s="204"/>
+      <c r="R35" s="204"/>
+      <c r="S35" s="204"/>
+      <c r="T35" s="205"/>
+      <c r="U35" s="213"/>
       <c r="AB35" s="53" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -14746,7 +14943,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="200">
+      <c r="AI35" s="194">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -14835,50 +15032,50 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A36" s="199" t="s">
+      <c r="A36" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="197">
+      <c r="B36" s="205">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="197"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197">
+      <c r="C36" s="205"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="205">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="197"/>
-      <c r="G36" s="197"/>
-      <c r="H36" s="197">
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="205">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="197"/>
-      <c r="J36" s="197"/>
-      <c r="K36" s="198">
+      <c r="I36" s="205"/>
+      <c r="J36" s="205"/>
+      <c r="K36" s="204">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="198"/>
-      <c r="M36" s="198"/>
-      <c r="N36" s="197">
+      <c r="L36" s="204"/>
+      <c r="M36" s="204"/>
+      <c r="N36" s="205">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="197"/>
-      <c r="P36" s="197"/>
-      <c r="Q36" s="197">
+      <c r="O36" s="205"/>
+      <c r="P36" s="205"/>
+      <c r="Q36" s="205">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="197"/>
-      <c r="S36" s="197"/>
-      <c r="T36" s="197">
+      <c r="R36" s="205"/>
+      <c r="S36" s="205"/>
+      <c r="T36" s="205">
         <f t="shared" ref="T36" si="56">SUM(B36:S37)</f>
         <v>96</v>
       </c>
-      <c r="U36" s="194"/>
+      <c r="U36" s="213"/>
       <c r="AB36" s="49">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -14907,7 +15104,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="200"/>
+      <c r="AI36" s="194"/>
       <c r="AK36" s="5">
         <f>SUM(BD31:BF44)</f>
         <v>100</v>
@@ -14990,27 +15187,27 @@
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A37" s="199"/>
-      <c r="B37" s="197"/>
-      <c r="C37" s="197"/>
-      <c r="D37" s="197"/>
-      <c r="E37" s="197"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="197"/>
-      <c r="J37" s="197"/>
-      <c r="K37" s="198"/>
-      <c r="L37" s="198"/>
-      <c r="M37" s="198"/>
-      <c r="N37" s="197"/>
-      <c r="O37" s="197"/>
-      <c r="P37" s="197"/>
-      <c r="Q37" s="197"/>
-      <c r="R37" s="197"/>
-      <c r="S37" s="197"/>
-      <c r="T37" s="197"/>
-      <c r="U37" s="194"/>
+      <c r="A37" s="203"/>
+      <c r="B37" s="205"/>
+      <c r="C37" s="205"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="204"/>
+      <c r="L37" s="204"/>
+      <c r="M37" s="204"/>
+      <c r="N37" s="205"/>
+      <c r="O37" s="205"/>
+      <c r="P37" s="205"/>
+      <c r="Q37" s="205"/>
+      <c r="R37" s="205"/>
+      <c r="S37" s="205"/>
+      <c r="T37" s="205"/>
+      <c r="U37" s="213"/>
       <c r="AB37" s="44" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -15039,7 +15236,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="200">
+      <c r="AI37" s="194">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -15121,50 +15318,50 @@
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A38" s="196" t="s">
+      <c r="A38" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="197">
+      <c r="B38" s="205">
         <f>SUM(B24:D37)</f>
         <v>59</v>
       </c>
-      <c r="C38" s="197"/>
-      <c r="D38" s="197"/>
-      <c r="E38" s="197">
+      <c r="C38" s="205"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="205">
         <f t="shared" ref="E38" si="57">SUM(E24:G37)</f>
         <v>49</v>
       </c>
-      <c r="F38" s="197"/>
-      <c r="G38" s="197"/>
-      <c r="H38" s="197">
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205">
         <f>SUM(H24:J37)</f>
         <v>20</v>
       </c>
-      <c r="I38" s="197"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="197">
+      <c r="I38" s="205"/>
+      <c r="J38" s="205"/>
+      <c r="K38" s="205">
         <f t="shared" ref="K38" si="58">SUM(K24:M37)</f>
         <v>199</v>
       </c>
-      <c r="L38" s="197"/>
-      <c r="M38" s="197"/>
-      <c r="N38" s="197">
+      <c r="L38" s="205"/>
+      <c r="M38" s="205"/>
+      <c r="N38" s="205">
         <f t="shared" ref="N38" si="59">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="197"/>
-      <c r="P38" s="197"/>
-      <c r="Q38" s="197">
+      <c r="O38" s="205"/>
+      <c r="P38" s="205"/>
+      <c r="Q38" s="205">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="197"/>
-      <c r="S38" s="197"/>
-      <c r="T38" s="197">
+      <c r="R38" s="205"/>
+      <c r="S38" s="205"/>
+      <c r="T38" s="205">
         <f>SUM(B38:S39)</f>
         <v>690</v>
       </c>
-      <c r="U38" s="194"/>
+      <c r="U38" s="213"/>
       <c r="AB38" s="44">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -15193,7 +15390,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="200"/>
+      <c r="AI38" s="194"/>
       <c r="AO38" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15272,27 +15469,27 @@
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A39" s="196"/>
-      <c r="B39" s="197"/>
-      <c r="C39" s="197"/>
-      <c r="D39" s="197"/>
-      <c r="E39" s="197"/>
-      <c r="F39" s="197"/>
-      <c r="G39" s="197"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="197"/>
-      <c r="L39" s="197"/>
-      <c r="M39" s="197"/>
-      <c r="N39" s="197"/>
-      <c r="O39" s="197"/>
-      <c r="P39" s="197"/>
-      <c r="Q39" s="197"/>
-      <c r="R39" s="197"/>
-      <c r="S39" s="197"/>
-      <c r="T39" s="197"/>
-      <c r="U39" s="194"/>
+      <c r="A39" s="212"/>
+      <c r="B39" s="205"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="205"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="205"/>
+      <c r="M39" s="205"/>
+      <c r="N39" s="205"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="205"/>
+      <c r="Q39" s="205"/>
+      <c r="R39" s="205"/>
+      <c r="S39" s="205"/>
+      <c r="T39" s="205"/>
+      <c r="U39" s="213"/>
       <c r="AB39" s="53" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -15321,7 +15518,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="200">
+      <c r="AI39" s="194">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -15432,7 +15629,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="200"/>
+      <c r="AI40" s="194"/>
       <c r="AO40" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15540,7 +15737,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="200">
+      <c r="AI41" s="194">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -15651,7 +15848,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="200"/>
+      <c r="AI42" s="194"/>
       <c r="AO42" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15759,7 +15956,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="200">
+      <c r="AI43" s="194">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -15870,7 +16067,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="214"/>
+      <c r="AI44" s="195"/>
       <c r="AO44" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15963,19 +16160,19 @@
       <c r="AB46" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="208" t="str">
+      <c r="AC46" s="196" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="209"/>
-      <c r="AE46" s="210"/>
-      <c r="AF46" s="208" t="str">
+      <c r="AD46" s="197"/>
+      <c r="AE46" s="198"/>
+      <c r="AF46" s="196" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="209"/>
-      <c r="AH46" s="211"/>
-      <c r="AI46" s="204" t="str">
+      <c r="AG46" s="197"/>
+      <c r="AH46" s="199"/>
+      <c r="AI46" s="200" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -16015,7 +16212,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="205"/>
+      <c r="AI47" s="201"/>
       <c r="BG47" s="144">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -16051,7 +16248,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="212">
+      <c r="AI48" s="202">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -16165,7 +16362,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="200"/>
+      <c r="AI49" s="194"/>
       <c r="AO49" s="5">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -16272,7 +16469,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="200">
+      <c r="AI50" s="194">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -16401,7 +16598,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="200"/>
+      <c r="AI51" s="194"/>
       <c r="AO51" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16522,7 +16719,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="200">
+      <c r="AI52" s="194">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -16646,7 +16843,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="200"/>
+      <c r="AI53" s="194"/>
       <c r="AO53" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16767,7 +16964,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="200">
+      <c r="AI54" s="194">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -16891,7 +17088,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="200"/>
+      <c r="AI55" s="194"/>
       <c r="AO55" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -17012,7 +17209,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="200">
+      <c r="AI56" s="194">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -17136,7 +17333,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="200"/>
+      <c r="AI57" s="194"/>
       <c r="AO57" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -17254,7 +17451,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="200">
+      <c r="AI58" s="194">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -17364,7 +17561,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="200"/>
+      <c r="AI59" s="194"/>
       <c r="AO59" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -17471,7 +17668,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="200">
+      <c r="AI60" s="194">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -17581,7 +17778,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="214"/>
+      <c r="AI61" s="195"/>
       <c r="AO61" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -17661,18 +17858,82 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:M39"/>
+    <mergeCell ref="N38:P39"/>
+    <mergeCell ref="Q34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="K36:M37"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="Q38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="E34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="K34:M35"/>
+    <mergeCell ref="N34:P35"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N30:P31"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
     <mergeCell ref="AL12:AL13"/>
     <mergeCell ref="AL14:AL15"/>
     <mergeCell ref="AL16:AL17"/>
@@ -17697,103 +17958,39 @@
     <mergeCell ref="K26:M27"/>
     <mergeCell ref="N26:P27"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:M39"/>
-    <mergeCell ref="N38:P39"/>
-    <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="K36:M37"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="Q38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="E34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="K34:M35"/>
-    <mergeCell ref="N34:P35"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29:AI44">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>27.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46:AI61">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:T39">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17911,20 +18108,20 @@
       <c r="N2" s="6">
         <v>30</v>
       </c>
-      <c r="O2" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="201" t="s">
+      <c r="O2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="201" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="206" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="204" t="s">
+      <c r="T2" s="207"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="200" t="s">
         <v>14</v>
       </c>
     </row>
@@ -17986,7 +18183,7 @@
       <c r="U3" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="205"/>
+      <c r="V3" s="201"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -19213,25 +19410,25 @@
       <c r="P9" s="172"/>
       <c r="Q9" s="172"/>
       <c r="R9" s="172"/>
-      <c r="U9" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="208" t="s">
+      <c r="U9" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="209"/>
-      <c r="X9" s="210"/>
-      <c r="Y9" s="208" t="s">
+      <c r="W9" s="197"/>
+      <c r="X9" s="198"/>
+      <c r="Y9" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="209"/>
-      <c r="AA9" s="210"/>
-      <c r="AB9" s="208" t="s">
+      <c r="Z9" s="197"/>
+      <c r="AA9" s="198"/>
+      <c r="AB9" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="209"/>
-      <c r="AD9" s="211"/>
-      <c r="AE9" s="204" t="s">
+      <c r="AC9" s="197"/>
+      <c r="AD9" s="199"/>
+      <c r="AE9" s="200" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19274,7 +19471,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="U10" s="205"/>
+      <c r="U10" s="201"/>
       <c r="V10" s="40" t="s">
         <v>26</v>
       </c>
@@ -19302,7 +19499,7 @@
       <c r="AD10" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="205"/>
+      <c r="AE10" s="201"/>
     </row>
     <row r="11" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -19352,10 +19549,10 @@
       <c r="Q11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="216" t="s">
+      <c r="R11" s="217" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="194"/>
+      <c r="S11" s="213"/>
       <c r="U11" s="44" t="s">
         <v>7</v>
       </c>
@@ -19386,7 +19583,7 @@
       <c r="AD11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="212">
+      <c r="AE11" s="202">
         <f>SUM(Z11:Z12,AC11:AC12,W11:W12)</f>
         <v>26</v>
       </c>
@@ -19450,7 +19647,7 @@
       <c r="AB12" s="50"/>
       <c r="AC12" s="51"/>
       <c r="AD12" s="24"/>
-      <c r="AE12" s="200"/>
+      <c r="AE12" s="194"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
@@ -19527,7 +19724,7 @@
       <c r="AD13" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="200">
+      <c r="AE13" s="194">
         <f t="shared" ref="AE13" si="7">SUM(Z13:Z14,AC13:AC14,W13:W14)</f>
         <v>27</v>
       </c>
@@ -19597,7 +19794,7 @@
       <c r="AB14" s="45"/>
       <c r="AC14" s="46"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="200"/>
+      <c r="AE14" s="194"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
@@ -19678,7 +19875,7 @@
       <c r="AD15" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="AE15" s="200">
+      <c r="AE15" s="194">
         <f t="shared" ref="AE15" si="8">SUM(Z15:Z16,AC15:AC16,W15:W16)</f>
         <v>26</v>
       </c>
@@ -19754,7 +19951,7 @@
       <c r="AD16" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AE16" s="200"/>
+      <c r="AE16" s="194"/>
     </row>
     <row r="17" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -19835,7 +20032,7 @@
       <c r="AD17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AE17" s="200">
+      <c r="AE17" s="194">
         <f t="shared" ref="AE17" si="9">SUM(Z17:Z18,AC17:AC18,W17:W18)</f>
         <v>28</v>
       </c>
@@ -19901,7 +20098,7 @@
       <c r="AD18" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" s="200"/>
+      <c r="AE18" s="194"/>
     </row>
     <row r="19" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U19" s="53" t="s">
@@ -19934,7 +20131,7 @@
       <c r="AD19" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" s="200">
+      <c r="AE19" s="194">
         <f t="shared" ref="AE19" si="10">SUM(Z19:Z20,AC19:AC20,W19:W20)</f>
         <v>30</v>
       </c>
@@ -19981,7 +20178,7 @@
         <v>2</v>
       </c>
       <c r="AD20" s="24"/>
-      <c r="AE20" s="200"/>
+      <c r="AE20" s="194"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="U21" s="44" t="s">
@@ -20014,7 +20211,7 @@
       <c r="AD21" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="AE21" s="200">
+      <c r="AE21" s="194">
         <f t="shared" ref="AE21" si="11">SUM(Z21:Z22,AC21:AC22,W21:W22)</f>
         <v>28</v>
       </c>
@@ -20031,7 +20228,7 @@
       <c r="AB22" s="45"/>
       <c r="AC22" s="46"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="200"/>
+      <c r="AE22" s="194"/>
     </row>
     <row r="23" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U23" s="53" t="s">
@@ -20064,7 +20261,7 @@
       <c r="AD23" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AE23" s="200">
+      <c r="AE23" s="194">
         <f t="shared" ref="AE23" si="12">SUM(Z23:Z24,AC23:AC24,W23:W24)</f>
         <v>28</v>
       </c>
@@ -20131,7 +20328,7 @@
       <c r="AD24" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" s="214"/>
+      <c r="AE24" s="195"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
@@ -20354,17 +20551,17 @@
       <c r="R28" s="6">
         <v>15</v>
       </c>
-      <c r="U28" s="217"/>
-      <c r="V28" s="217"/>
-      <c r="W28" s="217"/>
-      <c r="X28" s="217"/>
-      <c r="Y28" s="217"/>
-      <c r="Z28" s="217"/>
-      <c r="AA28" s="217"/>
-      <c r="AB28" s="217"/>
-      <c r="AC28" s="217"/>
-      <c r="AD28" s="217"/>
-      <c r="AE28" s="217"/>
+      <c r="U28" s="216"/>
+      <c r="V28" s="216"/>
+      <c r="W28" s="216"/>
+      <c r="X28" s="216"/>
+      <c r="Y28" s="216"/>
+      <c r="Z28" s="216"/>
+      <c r="AA28" s="216"/>
+      <c r="AB28" s="216"/>
+      <c r="AC28" s="216"/>
+      <c r="AD28" s="216"/>
+      <c r="AE28" s="216"/>
     </row>
     <row r="29" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -20413,7 +20610,7 @@
       <c r="R29" s="6">
         <v>22</v>
       </c>
-      <c r="U29" s="217"/>
+      <c r="U29" s="216"/>
       <c r="V29" s="73"/>
       <c r="W29" s="73"/>
       <c r="X29" s="73"/>
@@ -20423,7 +20620,7 @@
       <c r="AB29" s="73"/>
       <c r="AC29" s="73"/>
       <c r="AD29" s="73"/>
-      <c r="AE29" s="217"/>
+      <c r="AE29" s="216"/>
     </row>
     <row r="30" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
@@ -20486,7 +20683,7 @@
       <c r="AB30" s="73"/>
       <c r="AC30" s="73"/>
       <c r="AD30" s="73"/>
-      <c r="AE30" s="217"/>
+      <c r="AE30" s="216"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
@@ -20538,7 +20735,7 @@
       <c r="AB31" s="73"/>
       <c r="AC31" s="73"/>
       <c r="AD31" s="73"/>
-      <c r="AE31" s="217"/>
+      <c r="AE31" s="216"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
@@ -20588,7 +20785,7 @@
       <c r="AB32" s="73"/>
       <c r="AC32" s="73"/>
       <c r="AD32" s="73"/>
-      <c r="AE32" s="217"/>
+      <c r="AE32" s="216"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
@@ -20634,7 +20831,7 @@
       <c r="AB33" s="73"/>
       <c r="AC33" s="73"/>
       <c r="AD33" s="73"/>
-      <c r="AE33" s="217"/>
+      <c r="AE33" s="216"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
@@ -20684,7 +20881,7 @@
       <c r="AB34" s="73"/>
       <c r="AC34" s="73"/>
       <c r="AD34" s="73"/>
-      <c r="AE34" s="217"/>
+      <c r="AE34" s="216"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
@@ -20734,7 +20931,7 @@
       <c r="AB35" s="73"/>
       <c r="AC35" s="73"/>
       <c r="AD35" s="73"/>
-      <c r="AE35" s="217"/>
+      <c r="AE35" s="216"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
@@ -20780,7 +20977,7 @@
       <c r="AB36" s="73"/>
       <c r="AC36" s="73"/>
       <c r="AD36" s="73"/>
-      <c r="AE36" s="217"/>
+      <c r="AE36" s="216"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
@@ -20830,7 +21027,7 @@
       <c r="AB37" s="73"/>
       <c r="AC37" s="73"/>
       <c r="AD37" s="181"/>
-      <c r="AE37" s="217"/>
+      <c r="AE37" s="216"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
@@ -20880,7 +21077,7 @@
       <c r="AB38" s="73"/>
       <c r="AC38" s="73"/>
       <c r="AD38" s="73"/>
-      <c r="AE38" s="217"/>
+      <c r="AE38" s="216"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="59" t="s">
@@ -20930,7 +21127,7 @@
       <c r="AB39" s="73"/>
       <c r="AC39" s="73"/>
       <c r="AD39" s="73"/>
-      <c r="AE39" s="217"/>
+      <c r="AE39" s="216"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
@@ -20980,7 +21177,7 @@
       <c r="AB40" s="73"/>
       <c r="AC40" s="73"/>
       <c r="AD40" s="73"/>
-      <c r="AE40" s="217"/>
+      <c r="AE40" s="216"/>
     </row>
     <row r="41" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
@@ -21026,7 +21223,7 @@
       <c r="AB41" s="73"/>
       <c r="AC41" s="73"/>
       <c r="AD41" s="73"/>
-      <c r="AE41" s="217"/>
+      <c r="AE41" s="216"/>
     </row>
     <row r="42" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U42" s="73"/>
@@ -21039,7 +21236,7 @@
       <c r="AB42" s="73"/>
       <c r="AC42" s="73"/>
       <c r="AD42" s="73"/>
-      <c r="AE42" s="217"/>
+      <c r="AE42" s="216"/>
     </row>
     <row r="43" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="70" t="s">
@@ -21069,7 +21266,7 @@
       <c r="AB43" s="73"/>
       <c r="AC43" s="73"/>
       <c r="AD43" s="73"/>
-      <c r="AE43" s="217"/>
+      <c r="AE43" s="216"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="U44" s="73"/>
@@ -21086,18 +21283,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="AE42:AE43"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="AE21:AE22"/>
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AE9:AE10"/>
@@ -21106,41 +21296,48 @@
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="AE42:AE43"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AE38:AE39"/>
   </mergeCells>
   <conditionalFormatting sqref="Z26">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="notEqual">
       <formula>$E$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>$E$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="notEqual">
       <formula>$D$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>$D$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC26">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="notEqual">
       <formula>$F$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>$F$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21499,20 +21696,20 @@
       <c r="R6" s="6">
         <v>15</v>
       </c>
-      <c r="T6" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="208" t="s">
+      <c r="T6" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="209"/>
-      <c r="W6" s="210"/>
-      <c r="X6" s="208" t="s">
+      <c r="V6" s="197"/>
+      <c r="W6" s="198"/>
+      <c r="X6" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="209"/>
-      <c r="Z6" s="211"/>
-      <c r="AA6" s="204" t="s">
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="199"/>
+      <c r="AA6" s="200" t="s">
         <v>14</v>
       </c>
     </row>
@@ -21566,7 +21763,7 @@
         <f>SUM(Q2:Q6)</f>
         <v>6992</v>
       </c>
-      <c r="T7" s="205"/>
+      <c r="T7" s="201"/>
       <c r="U7" s="40" t="s">
         <v>26</v>
       </c>
@@ -21585,7 +21782,7 @@
       <c r="Z7" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="205"/>
+      <c r="AA7" s="201"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -21649,7 +21846,7 @@
       <c r="Z8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="212">
+      <c r="AA8" s="202">
         <f>SUM(V8:V9,Y8:Y9)</f>
         <v>52</v>
       </c>
@@ -21702,7 +21899,7 @@
       <c r="Z9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="200"/>
+      <c r="AA9" s="194"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
@@ -21764,7 +21961,7 @@
       <c r="Z10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="200">
+      <c r="AA10" s="194">
         <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
         <v>52</v>
       </c>
@@ -21827,7 +22024,7 @@
       <c r="Z11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="200"/>
+      <c r="AA11" s="194"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
@@ -21888,7 +22085,7 @@
       <c r="Z12" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="200">
+      <c r="AA12" s="194">
         <f t="shared" ref="AA12" si="8">SUM(V12:V13,Y12:Y13)</f>
         <v>52</v>
       </c>
@@ -21956,7 +22153,7 @@
       <c r="Z13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="200"/>
+      <c r="AA13" s="194"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
@@ -22021,7 +22218,7 @@
       <c r="Z14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="200">
+      <c r="AA14" s="194">
         <f t="shared" ref="AA14" si="9">SUM(V14:V15,Y14:Y15)</f>
         <v>57</v>
       </c>
@@ -22083,7 +22280,7 @@
       <c r="Z15" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="200"/>
+      <c r="AA15" s="194"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
@@ -22150,7 +22347,7 @@
       <c r="Z16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" s="200">
+      <c r="AA16" s="194">
         <f t="shared" ref="AA16" si="10">SUM(V16:V17,Y16:Y17)</f>
         <v>54</v>
       </c>
@@ -22216,7 +22413,7 @@
       <c r="Z17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="200"/>
+      <c r="AA17" s="194"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -22277,7 +22474,7 @@
       <c r="Z18" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="200">
+      <c r="AA18" s="194">
         <f t="shared" ref="AA18" si="11">SUM(V18:V19,Y18:Y19)</f>
         <v>54</v>
       </c>
@@ -22345,7 +22542,7 @@
       <c r="Z19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="200"/>
+      <c r="AA19" s="194"/>
     </row>
     <row r="20" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
@@ -22406,7 +22603,7 @@
       <c r="Z20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="200">
+      <c r="AA20" s="194">
         <f t="shared" ref="AA20" si="12">SUM(V20:V21,Y20:Y21)</f>
         <v>52</v>
       </c>
@@ -22468,7 +22665,7 @@
       <c r="Z21" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="214"/>
+      <c r="AA21" s="195"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
@@ -22783,6 +22980,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:Q12"/>
@@ -22790,26 +22993,20 @@
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AA8:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="notEqual">
       <formula>$E$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>$E$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="notEqual">
       <formula>$D$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>$D$28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23009,20 +23206,20 @@
       <c r="R3" s="6">
         <v>20</v>
       </c>
-      <c r="T3" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="208" t="s">
+      <c r="T3" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="209"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="208" t="s">
+      <c r="V3" s="197"/>
+      <c r="W3" s="198"/>
+      <c r="X3" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="204" t="s">
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="200" t="s">
         <v>14</v>
       </c>
     </row>
@@ -23074,7 +23271,7 @@
       <c r="R4" s="6">
         <v>15</v>
       </c>
-      <c r="T4" s="205"/>
+      <c r="T4" s="201"/>
       <c r="U4" s="40" t="s">
         <v>26</v>
       </c>
@@ -23093,7 +23290,7 @@
       <c r="Z4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="205"/>
+      <c r="AA4" s="201"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="96" t="s">
@@ -23168,7 +23365,7 @@
       <c r="Z5" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="212">
+      <c r="AA5" s="202">
         <f>SUM(V5:V6,Y5:Y6)</f>
         <v>18</v>
       </c>
@@ -23238,7 +23435,7 @@
       <c r="X6" s="131"/>
       <c r="Y6" s="51"/>
       <c r="Z6" s="133"/>
-      <c r="AA6" s="200"/>
+      <c r="AA6" s="194"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -23306,7 +23503,7 @@
       <c r="Z7" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="200">
+      <c r="AA7" s="194">
         <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
         <v>18</v>
       </c>
@@ -23362,7 +23559,7 @@
       <c r="Z8" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="200"/>
+      <c r="AA8" s="194"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="59" t="s">
@@ -23423,7 +23620,7 @@
       <c r="Z9" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="200">
+      <c r="AA9" s="194">
         <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
         <v>18</v>
       </c>
@@ -23469,7 +23666,7 @@
       <c r="X10" s="131"/>
       <c r="Y10" s="51"/>
       <c r="Z10" s="133"/>
-      <c r="AA10" s="200"/>
+      <c r="AA10" s="194"/>
     </row>
     <row r="11" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -23504,7 +23701,7 @@
       <c r="Z11" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA11" s="200">
+      <c r="AA11" s="194">
         <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
         <v>18</v>
       </c>
@@ -23547,9 +23744,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="208"/>
-      <c r="P12" s="209"/>
-      <c r="Q12" s="210"/>
+      <c r="O12" s="196"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="198"/>
       <c r="T12" s="44"/>
       <c r="U12" s="130"/>
       <c r="V12" s="46"/>
@@ -23557,7 +23754,7 @@
       <c r="X12" s="130"/>
       <c r="Y12" s="46"/>
       <c r="Z12" s="73"/>
-      <c r="AA12" s="200"/>
+      <c r="AA12" s="194"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -23590,7 +23787,7 @@
       <c r="Z13" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="200">
+      <c r="AA13" s="194">
         <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
         <v>18</v>
       </c>
@@ -23612,7 +23809,7 @@
       <c r="X14" s="131"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="133"/>
-      <c r="AA14" s="200"/>
+      <c r="AA14" s="194"/>
     </row>
     <row r="15" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -23657,7 +23854,7 @@
       <c r="Z15" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="200">
+      <c r="AA15" s="194">
         <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
         <v>18</v>
       </c>
@@ -23690,7 +23887,7 @@
       <c r="X16" s="130"/>
       <c r="Y16" s="46"/>
       <c r="Z16" s="73"/>
-      <c r="AA16" s="200"/>
+      <c r="AA16" s="194"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -23734,7 +23931,7 @@
       <c r="Z17" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="200">
+      <c r="AA17" s="194">
         <f t="shared" ref="AA17" si="15">SUM(V17:V18,Y17:Y18)</f>
         <v>16</v>
       </c>
@@ -23763,7 +23960,7 @@
       <c r="X18" s="136"/>
       <c r="Y18" s="77"/>
       <c r="Z18" s="138"/>
-      <c r="AA18" s="214"/>
+      <c r="AA18" s="195"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="96" t="s">
@@ -23853,20 +24050,20 @@
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="T22" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="U22" s="208" t="s">
+      <c r="T22" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="V22" s="209"/>
-      <c r="W22" s="210"/>
-      <c r="X22" s="208" t="s">
+      <c r="V22" s="197"/>
+      <c r="W22" s="198"/>
+      <c r="X22" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="Y22" s="209"/>
-      <c r="Z22" s="211"/>
-      <c r="AA22" s="204" t="s">
+      <c r="Y22" s="197"/>
+      <c r="Z22" s="199"/>
+      <c r="AA22" s="200" t="s">
         <v>14</v>
       </c>
     </row>
@@ -23888,7 +24085,7 @@
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="T23" s="205"/>
+      <c r="T23" s="201"/>
       <c r="U23" s="40" t="s">
         <v>26</v>
       </c>
@@ -23907,7 +24104,7 @@
       <c r="Z23" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AA23" s="205"/>
+      <c r="AA23" s="201"/>
     </row>
     <row r="24" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
@@ -23944,7 +24141,7 @@
       <c r="Z24" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AA24" s="212">
+      <c r="AA24" s="202">
         <f>SUM(V24:V25,Y24:Y25)</f>
         <v>18</v>
       </c>
@@ -23969,7 +24166,7 @@
       <c r="X25" s="131"/>
       <c r="Y25" s="51"/>
       <c r="Z25" s="133"/>
-      <c r="AA25" s="200"/>
+      <c r="AA25" s="194"/>
     </row>
     <row r="26" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="114" t="s">
@@ -24010,7 +24207,7 @@
       <c r="Z26" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="AA26" s="200">
+      <c r="AA26" s="194">
         <f t="shared" ref="AA26" si="17">SUM(V26:V27,Y26:Y27)</f>
         <v>18</v>
       </c>
@@ -24035,7 +24232,7 @@
       <c r="Z27" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="AA27" s="200"/>
+      <c r="AA27" s="194"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
@@ -24073,7 +24270,7 @@
       <c r="Z28" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA28" s="200">
+      <c r="AA28" s="194">
         <f t="shared" ref="AA28" si="18">SUM(V28:V29,Y28:Y29)</f>
         <v>18</v>
       </c>
@@ -24094,7 +24291,7 @@
       <c r="X29" s="131"/>
       <c r="Y29" s="51"/>
       <c r="Z29" s="133"/>
-      <c r="AA29" s="200"/>
+      <c r="AA29" s="194"/>
       <c r="AB29" s="69"/>
       <c r="AC29" s="69"/>
       <c r="AD29" s="69"/>
@@ -24126,7 +24323,7 @@
       <c r="Z30" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA30" s="200">
+      <c r="AA30" s="194">
         <f t="shared" ref="AA30" si="19">SUM(V30:V31,Y30:Y31)</f>
         <v>18</v>
       </c>
@@ -24147,7 +24344,7 @@
       <c r="X31" s="130"/>
       <c r="Y31" s="46"/>
       <c r="Z31" s="193"/>
-      <c r="AA31" s="200"/>
+      <c r="AA31" s="194"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
@@ -24179,7 +24376,7 @@
       <c r="Z32" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA32" s="200">
+      <c r="AA32" s="194">
         <f t="shared" ref="AA32" si="20">SUM(V32:V33,Y32:Y33)</f>
         <v>18</v>
       </c>
@@ -24200,7 +24397,7 @@
       <c r="X33" s="131"/>
       <c r="Y33" s="51"/>
       <c r="Z33" s="133"/>
-      <c r="AA33" s="200"/>
+      <c r="AA33" s="194"/>
     </row>
     <row r="34" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T34" s="44" t="s">
@@ -24224,7 +24421,7 @@
       <c r="Z34" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AA34" s="200">
+      <c r="AA34" s="194">
         <f t="shared" ref="AA34" si="21">SUM(V34:V35,Y34:Y35)</f>
         <v>18</v>
       </c>
@@ -24237,7 +24434,7 @@
       <c r="X35" s="130"/>
       <c r="Y35" s="46"/>
       <c r="Z35" s="193"/>
-      <c r="AA35" s="200"/>
+      <c r="AA35" s="194"/>
     </row>
     <row r="36" spans="20:27" x14ac:dyDescent="0.2">
       <c r="T36" s="53" t="s">
@@ -24261,7 +24458,7 @@
       <c r="Z36" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA36" s="200">
+      <c r="AA36" s="194">
         <f t="shared" ref="AA36" si="22">SUM(V36:V37,Y36:Y37)</f>
         <v>16</v>
       </c>
@@ -24274,7 +24471,7 @@
       <c r="X37" s="136"/>
       <c r="Y37" s="77"/>
       <c r="Z37" s="138"/>
-      <c r="AA37" s="214"/>
+      <c r="AA37" s="195"/>
     </row>
     <row r="39" spans="20:27" x14ac:dyDescent="0.2">
       <c r="V39" s="5">
@@ -24288,17 +24485,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA11:AA12"/>
@@ -24306,42 +24498,47 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AA34:AA35"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="notEqual">
       <formula>$E$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="notEqual">
       <formula>$D$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
       <formula>$E$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V39">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>$D$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24354,8 +24551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24413,20 +24610,18 @@
         <v>9</v>
       </c>
       <c r="E2" s="5">
-        <f>SUM('3_PDC'!Y8)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5">
         <f>SUM('3_PDC'!Y9,'3_PDC'!V8,Consuntivo_2_PA!Z11,Consuntivo_2_PA!AC11)</f>
         <v>59</v>
       </c>
       <c r="G2" s="5">
-        <f>SUM('4_VV'!V25)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(B2:G2)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
@@ -24445,20 +24640,18 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <f>SUM('3_PDC'!V10,Consuntivo_2_PA!Z13)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="5">
         <f>SUM('3_PDC'!Y10,Consuntivo_2_PA!AC13,Consuntivo_2_PA!W14)</f>
         <v>29</v>
       </c>
       <c r="G3" s="5">
-        <f>SUM('4_VV'!V26,'3_PDC'!Y11)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H9" si="0">SUM(B3:G3)</f>
-        <v>97</v>
+        <f t="shared" ref="H3:H8" si="0">SUM(B3:G3)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
@@ -24478,8 +24671,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="5">
-        <f>SUM('4_VV'!Y28,'3_PDC'!V13,Consuntivo_2_PA!AC15)</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F4" s="5">
         <f>SUM('4_VV'!V28,'3_PDC'!Y13,Consuntivo_2_PA!W16,Consuntivo_2_PA!Z17)</f>
@@ -24491,7 +24683,7 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AL4" s="5">
         <v>4</v>
@@ -24539,12 +24731,11 @@
         <v>35</v>
       </c>
       <c r="G5" s="5">
-        <f>SUM('3_PDC'!Y14)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
@@ -24561,7 +24752,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5">
         <v>37</v>
@@ -24571,7 +24762,7 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AL6" s="5">
         <v>13</v>
@@ -24609,17 +24800,17 @@
         <v>0</v>
       </c>
       <c r="E7" s="5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5">
         <v>40</v>
       </c>
       <c r="G7" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
@@ -24642,11 +24833,11 @@
         <v>10</v>
       </c>
       <c r="G8" s="5">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AL8" s="5">
         <v>10</v>
@@ -24688,7 +24879,7 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
@@ -24696,11 +24887,11 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
-        <v>690</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
@@ -24727,6 +24918,9 @@
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="AL12" s="5">
         <v>9</v>
       </c>
@@ -24749,7 +24943,45 @@
         <v>102</v>
       </c>
     </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5">
+        <v>199</v>
+      </c>
+      <c r="F14" s="5">
+        <v>243</v>
+      </c>
+      <c r="G14" s="5">
+        <v>120</v>
+      </c>
       <c r="AL14" s="5">
         <v>6</v>
       </c>
@@ -24773,6 +25005,9 @@
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="AL16" s="5">
         <v>2</v>
       </c>
@@ -24795,7 +25030,45 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="38:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>59</v>
+      </c>
+      <c r="C18" s="5">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5">
+        <v>220</v>
+      </c>
+      <c r="F18" s="5">
+        <v>243</v>
+      </c>
+      <c r="G18" s="5">
+        <v>144</v>
+      </c>
       <c r="AL18" s="5">
         <v>59</v>
       </c>
@@ -24890,11 +25163,11 @@
       </c>
       <c r="F43" s="5">
         <f>E$9</f>
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" si="2"/>
-        <v>2985</v>
+        <v>3270</v>
       </c>
       <c r="H43" s="5">
         <v>15</v>
@@ -24924,11 +25197,11 @@
       </c>
       <c r="F45" s="5">
         <f>G$9</f>
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>2190</v>
       </c>
       <c r="H45" s="5">
         <v>15</v>
@@ -24941,11 +25214,11 @@
       </c>
       <c r="F46" s="5">
         <f>SUM(F40:F45)</f>
-        <v>690</v>
+        <v>735</v>
       </c>
       <c r="G46" s="5">
         <f>SUM(G40:G45)</f>
-        <v>13381</v>
+        <v>14056</v>
       </c>
     </row>
     <row r="92" spans="41:42" x14ac:dyDescent="0.2">
